--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/17_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/17_11R22.xlsx
@@ -689,22 +689,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2116830136500858</v>
+        <v>0.1865404572397509</v>
       </c>
       <c r="E2">
-        <v>0.1266870631178975</v>
+        <v>0.1151321040006757</v>
       </c>
       <c r="F2">
-        <v>0.3143597948220263</v>
+        <v>0.2728031534443248</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.001642344870700295</v>
       </c>
       <c r="H2">
-        <v>0.03743580795695334</v>
+        <v>0.04014870637222122</v>
       </c>
       <c r="I2">
-        <v>0.0005311206901440667</v>
+        <v>0.009143665214079036</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -713,58 +713,58 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.002965636609440389</v>
+        <v>0.01118899527560271</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.09562911050745919</v>
+        <v>0.08903912854711286</v>
       </c>
       <c r="O2">
-        <v>0.02291677032022633</v>
+        <v>0.02795070679973339</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0009460864817340976</v>
       </c>
       <c r="Q2">
-        <v>0.01713550758141136</v>
+        <v>0.02309364656055339</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.007574322848717788</v>
       </c>
       <c r="S2">
-        <v>0.06121100615391603</v>
+        <v>0.06012316092620365</v>
       </c>
       <c r="T2">
-        <v>0.05149495061066495</v>
+        <v>0.05196033055630032</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00119264910849722</v>
       </c>
       <c r="V2">
-        <v>0.009022899865305196</v>
+        <v>0.01627793411949575</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.005380783782138447</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.005959795404832889</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.002288321470759553</v>
       </c>
       <c r="AB2">
-        <v>0.02642382373853294</v>
+        <v>0.03089711669049524</v>
       </c>
       <c r="AC2">
-        <v>0.01982019411206228</v>
+        <v>0.02534915453377509</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.004415642053593689</v>
       </c>
       <c r="AH2">
-        <v>0.002683300263874251</v>
+        <v>0.01095179369870192</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -802,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2372664397366998</v>
+        <v>0.2098889553416745</v>
       </c>
       <c r="F3">
-        <v>0.1207611282593403</v>
+        <v>0.1111394905399323</v>
       </c>
       <c r="G3">
-        <v>0.3505948694168519</v>
+        <v>0.3059457070539059</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0003591372328056819</v>
       </c>
       <c r="I3">
-        <v>0.06473312194618226</v>
+        <v>0.06365036264374904</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.004609923583495775</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -826,61 +826,61 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.003884452290580065</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.04585290845901342</v>
+        <v>0.04764756454331335</v>
       </c>
       <c r="P3">
-        <v>0.01145188830834365</v>
+        <v>0.0184893889594238</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001772407353305983</v>
+        <v>0.01028509722587158</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.06976814111444052</v>
+        <v>0.06791802599597861</v>
       </c>
       <c r="U3">
-        <v>0.04960620418829918</v>
+        <v>0.05082884391856019</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.002424806230310346</v>
       </c>
       <c r="W3">
-        <v>0.008085778794273309</v>
+        <v>0.01563628716720985</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>4.1528893659218E-06</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.006718554335060645</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.004042263071868652</v>
+        <v>0.01220901841489648</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.001668920287990102</v>
       </c>
       <c r="AC3">
-        <v>0.02206168746866952</v>
+        <v>0.02748221491259724</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.007956604858421307</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.001126062288627008</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.007090806386839021</v>
       </c>
       <c r="AI3">
-        <v>0.01400316188271172</v>
+        <v>0.02065183886695985</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.002383784032431233</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1152460466268015</v>
+        <v>0.1066358996520016</v>
       </c>
       <c r="E4">
-        <v>0.02418162762005599</v>
+        <v>0.02738275157560749</v>
       </c>
       <c r="F4">
-        <v>0.3127426029647964</v>
+        <v>0.278516684647441</v>
       </c>
       <c r="G4">
-        <v>0.191428724824913</v>
+        <v>0.1729375039662396</v>
       </c>
       <c r="H4">
-        <v>0.03033929318679746</v>
+        <v>0.03274175332721067</v>
       </c>
       <c r="I4">
-        <v>0.03589184596009631</v>
+        <v>0.0375741268485489</v>
       </c>
       <c r="J4">
-        <v>0.006307815512703091</v>
+        <v>0.01182721525215326</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -939,52 +939,52 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.006736806601563686</v>
+        <v>0.01220056518025639</v>
       </c>
       <c r="O4">
-        <v>0.0681757520797729</v>
+        <v>0.06567073384493911</v>
       </c>
       <c r="P4">
-        <v>0.0003413681471207189</v>
+        <v>0.006634630247910441</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00320474312591606</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.005350841122438076</v>
       </c>
       <c r="T4">
-        <v>0.1117452540595633</v>
+        <v>0.1035891681761711</v>
       </c>
       <c r="U4">
-        <v>0.005646383937659748</v>
+        <v>0.01125157291971352</v>
       </c>
       <c r="V4">
-        <v>0.0129528604754378</v>
+        <v>0.01761038213720086</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.007659597697381921</v>
+        <v>0.01300366808431208</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.0007335565307959336</v>
       </c>
       <c r="AA4">
-        <v>0.0006152995536057414</v>
+        <v>0.006873032101869717</v>
       </c>
       <c r="AB4">
-        <v>0.008186345391935834</v>
+        <v>0.0134620953547072</v>
       </c>
       <c r="AC4">
-        <v>0.0473631558895353</v>
+        <v>0.04755758069785852</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0017243982397464</v>
+        <v>0.007838278060310728</v>
       </c>
       <c r="AI4">
-        <v>0.01271482123051288</v>
+        <v>0.01740321714639771</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2209289622326693</v>
+        <v>0.1909852245331925</v>
       </c>
       <c r="E5">
-        <v>0.1215798687985091</v>
+        <v>0.1093679391258301</v>
       </c>
       <c r="F5">
-        <v>0.3380021337348586</v>
+        <v>0.2871631977964473</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.004202888540632051</v>
       </c>
       <c r="H5">
-        <v>0.05217345256531336</v>
+        <v>0.05234916736863213</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00788483225250132</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1043,58 +1043,58 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.005169593786237499</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.06863780225577146</v>
+        <v>0.06587496293739865</v>
       </c>
       <c r="O5">
-        <v>0.02548504151305557</v>
+        <v>0.03042409904010561</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.003333168628747947</v>
       </c>
       <c r="Q5">
-        <v>0.01559999115766435</v>
+        <v>0.02230333066432991</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.009344901728956693</v>
       </c>
       <c r="S5">
-        <v>0.05331229619491006</v>
+        <v>0.05328475039549435</v>
       </c>
       <c r="T5">
-        <v>0.05141607462684857</v>
+        <v>0.05172696610611244</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.002334005610383764</v>
       </c>
       <c r="V5">
-        <v>0.01417927348035921</v>
+        <v>0.02113618241824406</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.006080465225196773</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001102676798686877</v>
+        <v>0.01039349432082006</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.003457322406763778</v>
       </c>
       <c r="AB5">
-        <v>0.02352516560725165</v>
+        <v>0.02881402142754019</v>
       </c>
       <c r="AC5">
-        <v>0.01279289577977701</v>
+        <v>0.01999724515611587</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.00384591587985111</v>
       </c>
       <c r="AH5">
-        <v>0.001264365254324841</v>
+        <v>0.01052632465046595</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2769405515693146</v>
+        <v>0.2385473593708902</v>
       </c>
       <c r="E6">
-        <v>0.06593148301870733</v>
+        <v>0.06325558731980849</v>
       </c>
       <c r="F6">
-        <v>0.2436733320956729</v>
+        <v>0.2109112492605405</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.004492199348296221</v>
       </c>
       <c r="H6">
-        <v>0.03412340348921602</v>
+        <v>0.03683162997728782</v>
       </c>
       <c r="I6">
-        <v>0.005444651214364917</v>
+        <v>0.01300730175763617</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1153,76 +1153,76 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.00223146436157186</v>
+        <v>0.01033800786791765</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.07081287437899784</v>
+        <v>0.06731071038867768</v>
       </c>
       <c r="O6">
-        <v>0.03087911973304037</v>
+        <v>0.03413650292629012</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.006077086473336498</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.006066809484971821</v>
       </c>
       <c r="S6">
-        <v>0.09387455395408499</v>
+        <v>0.0864687622532672</v>
       </c>
       <c r="T6">
-        <v>0.1143583763428976</v>
+        <v>0.1034853082698827</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.007097358417689966</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.00190733158636136</v>
       </c>
       <c r="X6">
-        <v>0.006791716717439434</v>
+        <v>0.01412635081427035</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.006798204201273017</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.001240314939423327</v>
       </c>
       <c r="AB6">
-        <v>0.01537333413986636</v>
+        <v>0.02125536633656233</v>
       </c>
       <c r="AC6">
-        <v>0.004993399722023503</v>
+        <v>0.01263243315944486</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.0003214382948441313</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.0002713209129864964</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.005062055555407974</v>
+        <v>0.01268946768776287</v>
       </c>
       <c r="AH6">
-        <v>0.02950968370739419</v>
+        <v>0.03299886998333185</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.007733028967246388</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1239,61 +1239,61 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08040149319805825</v>
+        <v>0.08351070364384887</v>
       </c>
       <c r="E7">
-        <v>0.01849219328942599</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2265489939583318</v>
+        <v>0.2991124039742494</v>
       </c>
       <c r="G7">
-        <v>0.2057593451212538</v>
+        <v>0.2684428159537314</v>
       </c>
       <c r="H7">
-        <v>0.02379303136507218</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.04282087150952134</v>
+        <v>0.02807050868073027</v>
       </c>
       <c r="J7">
-        <v>0.05452765282252459</v>
+        <v>0.04534074555340723</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.01801838903091525</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.009760405640601835</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.07304964212658269</v>
+        <v>0.07266500608938976</v>
       </c>
       <c r="P7">
-        <v>0.005435221472131343</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.006465381913508748</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.03997355608502523</v>
+        <v>0.02387005336192673</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.1079008159481245</v>
+        <v>0.1240786279121807</v>
       </c>
       <c r="U7">
-        <v>0.009553232824561763</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.00429538815383839</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.00169540036234782</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.06101366929183226</v>
+        <v>0.05490913483053564</v>
       </c>
       <c r="AD7">
-        <v>0.01049531588634245</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1349,31 +1349,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01021949649382117</v>
+        <v>0.01440127122168712</v>
       </c>
       <c r="E8">
-        <v>0.1016374398782589</v>
+        <v>0.09733841402330846</v>
       </c>
       <c r="F8">
-        <v>0.1539713389658596</v>
+        <v>0.1448173213505199</v>
       </c>
       <c r="G8">
-        <v>0.2924827846877339</v>
+        <v>0.2704791239266834</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.07099014474770662</v>
+        <v>0.06953425437341257</v>
       </c>
       <c r="J8">
-        <v>0.04353024000694238</v>
+        <v>0.04462179237209198</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.016040342768533E-05</v>
+        <v>0.005202556679332287</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1382,52 +1382,52 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.07636692159083225</v>
+        <v>0.07441223010051334</v>
       </c>
       <c r="P8">
-        <v>0.006320605346538688</v>
+        <v>0.01086407841381225</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.003340917902837863</v>
       </c>
       <c r="R8">
-        <v>0.03887245361474616</v>
+        <v>0.04039610668230881</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.08177654151698915</v>
+        <v>0.07932000207293061</v>
       </c>
       <c r="U8">
-        <v>0.04303689508921638</v>
+        <v>0.04417421483559207</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.003921027253528288</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.002339620529814065</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.004712878178986849</v>
+        <v>0.009405499356519742</v>
       </c>
       <c r="AB8">
-        <v>0.005056602981583757</v>
+        <v>0.009717336967190512</v>
       </c>
       <c r="AC8">
-        <v>0.03519304066336235</v>
+        <v>0.03705803117899354</v>
       </c>
       <c r="AD8">
-        <v>0.03575245583399372</v>
+        <v>0.03756554966140938</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.001090651097513825</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1459,55 +1459,55 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2283348420442656</v>
+        <v>0.2367090083591989</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2953827634791598</v>
+        <v>0.3073976468976541</v>
       </c>
       <c r="G9">
-        <v>0.08555437768258756</v>
+        <v>0.08617553290439232</v>
       </c>
       <c r="H9">
-        <v>0.09729359827271905</v>
+        <v>0.09855219579355867</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03615206140617431</v>
+        <v>0.03409065982422016</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.00164104835162411</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.0176038092754132</v>
+        <v>0.01453523346153008</v>
       </c>
       <c r="O9">
-        <v>0.01888983769547995</v>
+        <v>0.01589109351193526</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.0005416244175973803</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.003817192199228512</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.0280273086298774</v>
+        <v>0.02552473115817412</v>
       </c>
       <c r="T9">
-        <v>0.116895064638194</v>
+        <v>0.1192180261590565</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1522,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.0003280459536472873</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.02009112835577131</v>
+        <v>0.01715761452329004</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.04626075468685669</v>
+        <v>0.04474825740698996</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.003186542911403982</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2470019191828257</v>
+        <v>0.2471495076159555</v>
       </c>
       <c r="F10">
-        <v>0.03824495675610139</v>
+        <v>0.03822555444395355</v>
       </c>
       <c r="G10">
-        <v>0.2455659859681339</v>
+        <v>0.2457124257566633</v>
       </c>
       <c r="H10">
-        <v>0.003661511127186595</v>
+        <v>0.003614444514443908</v>
       </c>
       <c r="I10">
-        <v>0.06803542424692562</v>
+        <v>0.06803985219323064</v>
       </c>
       <c r="J10">
-        <v>0.03988771514953862</v>
+        <v>0.03986962692744671</v>
       </c>
       <c r="K10">
-        <v>9.163783066545724E-05</v>
+        <v>4.171557279648163E-05</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.995560069293238E-05</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.05761827924896758</v>
+        <v>0.05761437421903721</v>
       </c>
       <c r="P10">
-        <v>0.01073793523603166</v>
+        <v>0.01069652926005098</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.09535564988368786</v>
+        <v>0.09538193207038419</v>
       </c>
       <c r="U10">
-        <v>0.1155295381498456</v>
+        <v>0.1155719580145266</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1641,13 +1641,13 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02660250408567355</v>
+        <v>0.02657378863816633</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.02890728654263982</v>
+        <v>0.02888041475742638</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1662,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.02044584252823068</v>
+        <v>0.02041220218868657</v>
       </c>
       <c r="AJ10">
-        <v>0.002263858462852932</v>
+        <v>0.002215673827231663</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1682,85 +1682,85 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2728962491494129</v>
+        <v>0.2406552107380849</v>
       </c>
       <c r="F11">
-        <v>0.01173704508236623</v>
+        <v>0.017940970275933</v>
       </c>
       <c r="G11">
-        <v>0.2750145461899701</v>
+        <v>0.2424616755653395</v>
       </c>
       <c r="H11">
-        <v>0.006863347488030004</v>
+        <v>0.01378472442642372</v>
       </c>
       <c r="I11">
-        <v>0.1143888257460087</v>
+        <v>0.1054814934761846</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.002160813595891957</v>
+        <v>0.009774445455876024</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.003443295704754692</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.0549485669041987</v>
+        <v>0.05479137076686277</v>
       </c>
       <c r="P11">
-        <v>0.006121793071799531</v>
+        <v>0.01315233343273037</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.0004925639730802227</v>
       </c>
       <c r="R11">
-        <v>0.02310203631848874</v>
+        <v>0.02763293346005353</v>
       </c>
       <c r="S11">
-        <v>0.008318546622674691</v>
+        <v>0.01502570527238452</v>
       </c>
       <c r="T11">
-        <v>0.05131770962261883</v>
+        <v>0.05169500805361934</v>
       </c>
       <c r="U11">
-        <v>0.08484912381555343</v>
+        <v>0.08029029907650065</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.0014464308282971</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.003731309698684087</v>
       </c>
       <c r="Z11">
-        <v>0.006549599208484145</v>
+        <v>0.01351716269133196</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.01394943043067973</v>
+        <v>0.01982767277305325</v>
       </c>
       <c r="AC11">
-        <v>0.005127819020909695</v>
+        <v>0.01230468122543468</v>
       </c>
       <c r="AD11">
-        <v>0.06265454773291262</v>
+        <v>0.06136296250307561</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.005350010190052886</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1769,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.0006156510497730932</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.005222089362469581</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2116830136500858</v>
+        <v>0.1865404572397509</v>
       </c>
       <c r="E2">
-        <v>0.3383700767679834</v>
+        <v>0.3016725612404267</v>
       </c>
       <c r="F2">
-        <v>0.6527298715900096</v>
+        <v>0.5744757146847514</v>
       </c>
       <c r="G2">
-        <v>0.6527298715900096</v>
+        <v>0.5761180595554517</v>
       </c>
       <c r="H2">
-        <v>0.690165679546963</v>
+        <v>0.6162667659276729</v>
       </c>
       <c r="I2">
-        <v>0.690696800237107</v>
+        <v>0.625410431141752</v>
       </c>
       <c r="J2">
-        <v>0.690696800237107</v>
+        <v>0.625410431141752</v>
       </c>
       <c r="K2">
-        <v>0.690696800237107</v>
+        <v>0.625410431141752</v>
       </c>
       <c r="L2">
-        <v>0.6936624368465474</v>
+        <v>0.6365994264173547</v>
       </c>
       <c r="M2">
-        <v>0.6936624368465474</v>
+        <v>0.6365994264173547</v>
       </c>
       <c r="N2">
-        <v>0.7892915473540065</v>
+        <v>0.7256385549644675</v>
       </c>
       <c r="O2">
-        <v>0.8122083176742328</v>
+        <v>0.7535892617642009</v>
       </c>
       <c r="P2">
-        <v>0.8122083176742328</v>
+        <v>0.754535348245935</v>
       </c>
       <c r="Q2">
-        <v>0.8293438252556442</v>
+        <v>0.7776289948064884</v>
       </c>
       <c r="R2">
-        <v>0.8293438252556442</v>
+        <v>0.7852033176552062</v>
       </c>
       <c r="S2">
-        <v>0.8905548314095603</v>
+        <v>0.8453264785814099</v>
       </c>
       <c r="T2">
-        <v>0.9420497820202252</v>
+        <v>0.8972868091377102</v>
       </c>
       <c r="U2">
-        <v>0.9420497820202252</v>
+        <v>0.8984794582462075</v>
       </c>
       <c r="V2">
-        <v>0.9510726818855304</v>
+        <v>0.9147573923657032</v>
       </c>
       <c r="W2">
-        <v>0.9510726818855304</v>
+        <v>0.9147573923657032</v>
       </c>
       <c r="X2">
-        <v>0.9510726818855304</v>
+        <v>0.9201381761478417</v>
       </c>
       <c r="Y2">
-        <v>0.9510726818855304</v>
+        <v>0.9201381761478417</v>
       </c>
       <c r="Z2">
-        <v>0.9510726818855304</v>
+        <v>0.9260979715526746</v>
       </c>
       <c r="AA2">
-        <v>0.9510726818855304</v>
+        <v>0.9283862930234341</v>
       </c>
       <c r="AB2">
-        <v>0.9774965056240633</v>
+        <v>0.9592834097139293</v>
       </c>
       <c r="AC2">
-        <v>0.9973166997361256</v>
+        <v>0.9846325642477044</v>
       </c>
       <c r="AD2">
-        <v>0.9973166997361256</v>
+        <v>0.9846325642477044</v>
       </c>
       <c r="AE2">
-        <v>0.9973166997361256</v>
+        <v>0.9846325642477044</v>
       </c>
       <c r="AF2">
-        <v>0.9973166997361256</v>
+        <v>0.9846325642477044</v>
       </c>
       <c r="AG2">
-        <v>0.9973166997361256</v>
+        <v>0.9890482063012981</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2025,97 +2025,97 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2372664397366998</v>
+        <v>0.2098889553416745</v>
       </c>
       <c r="F3">
-        <v>0.3580275679960401</v>
+        <v>0.3210284458816068</v>
       </c>
       <c r="G3">
-        <v>0.708622437412892</v>
+        <v>0.6269741529355128</v>
       </c>
       <c r="H3">
-        <v>0.708622437412892</v>
+        <v>0.6273332901683185</v>
       </c>
       <c r="I3">
-        <v>0.7733555593590743</v>
+        <v>0.6909836528120675</v>
       </c>
       <c r="J3">
-        <v>0.7733555593590743</v>
+        <v>0.6955935763955633</v>
       </c>
       <c r="K3">
-        <v>0.7733555593590743</v>
+        <v>0.6955935763955633</v>
       </c>
       <c r="L3">
-        <v>0.7733555593590743</v>
+        <v>0.6955935763955633</v>
       </c>
       <c r="M3">
-        <v>0.7733555593590743</v>
+        <v>0.6994780286861434</v>
       </c>
       <c r="N3">
-        <v>0.7733555593590743</v>
+        <v>0.6994780286861434</v>
       </c>
       <c r="O3">
-        <v>0.8192084678180878</v>
+        <v>0.7471255932294567</v>
       </c>
       <c r="P3">
-        <v>0.8306603561264314</v>
+        <v>0.7656149821888805</v>
       </c>
       <c r="Q3">
-        <v>0.8306603561264314</v>
+        <v>0.7656149821888805</v>
       </c>
       <c r="R3">
-        <v>0.8324327634797374</v>
+        <v>0.775900079414752</v>
       </c>
       <c r="S3">
-        <v>0.8324327634797374</v>
+        <v>0.775900079414752</v>
       </c>
       <c r="T3">
-        <v>0.9022009045941779</v>
+        <v>0.8438181054107307</v>
       </c>
       <c r="U3">
-        <v>0.9518071087824771</v>
+        <v>0.8946469493292909</v>
       </c>
       <c r="V3">
-        <v>0.9518071087824771</v>
+        <v>0.8970717555596013</v>
       </c>
       <c r="W3">
-        <v>0.9598928875767504</v>
+        <v>0.9127080427268112</v>
       </c>
       <c r="X3">
-        <v>0.9598928875767504</v>
+        <v>0.9127121956161771</v>
       </c>
       <c r="Y3">
-        <v>0.9598928875767504</v>
+        <v>0.9194307499512377</v>
       </c>
       <c r="Z3">
-        <v>0.9598928875767504</v>
+        <v>0.9194307499512377</v>
       </c>
       <c r="AA3">
-        <v>0.963935150648619</v>
+        <v>0.9316397683661343</v>
       </c>
       <c r="AB3">
-        <v>0.963935150648619</v>
+        <v>0.9333086886541244</v>
       </c>
       <c r="AC3">
-        <v>0.9859968381172886</v>
+        <v>0.9607909035667217</v>
       </c>
       <c r="AD3">
-        <v>0.9859968381172886</v>
+        <v>0.968747508425143</v>
       </c>
       <c r="AE3">
-        <v>0.9859968381172886</v>
+        <v>0.96987357071377</v>
       </c>
       <c r="AF3">
-        <v>0.9859968381172886</v>
+        <v>0.96987357071377</v>
       </c>
       <c r="AG3">
-        <v>0.9859968381172886</v>
+        <v>0.96987357071377</v>
       </c>
       <c r="AH3">
-        <v>0.9859968381172886</v>
+        <v>0.976964377100609</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9976162159675689</v>
       </c>
       <c r="AJ3">
         <v>1</v>
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1152460466268015</v>
+        <v>0.1066358996520016</v>
       </c>
       <c r="E4">
-        <v>0.1394276742468575</v>
+        <v>0.1340186512276091</v>
       </c>
       <c r="F4">
-        <v>0.4521702772116539</v>
+        <v>0.4125353358750501</v>
       </c>
       <c r="G4">
-        <v>0.6435990020365669</v>
+        <v>0.5854728398412897</v>
       </c>
       <c r="H4">
-        <v>0.6739382952233643</v>
+        <v>0.6182145931685004</v>
       </c>
       <c r="I4">
-        <v>0.7098301411834607</v>
+        <v>0.6557887200170492</v>
       </c>
       <c r="J4">
-        <v>0.7161379566961638</v>
+        <v>0.6676159352692025</v>
       </c>
       <c r="K4">
-        <v>0.7161379566961638</v>
+        <v>0.6676159352692025</v>
       </c>
       <c r="L4">
-        <v>0.7161379566961638</v>
+        <v>0.6676159352692025</v>
       </c>
       <c r="M4">
-        <v>0.7161379566961638</v>
+        <v>0.6676159352692025</v>
       </c>
       <c r="N4">
-        <v>0.7228747632977275</v>
+        <v>0.6798165004494588</v>
       </c>
       <c r="O4">
-        <v>0.7910505153775004</v>
+        <v>0.745487234294398</v>
       </c>
       <c r="P4">
-        <v>0.7913918835246211</v>
+        <v>0.7521218645423084</v>
       </c>
       <c r="Q4">
-        <v>0.7913918835246211</v>
+        <v>0.7521218645423084</v>
       </c>
       <c r="R4">
-        <v>0.7913918835246211</v>
+        <v>0.7553266076682245</v>
       </c>
       <c r="S4">
-        <v>0.7913918835246211</v>
+        <v>0.7606774487906626</v>
       </c>
       <c r="T4">
-        <v>0.9031371375841843</v>
+        <v>0.8642666169668336</v>
       </c>
       <c r="U4">
-        <v>0.9087835215218441</v>
+        <v>0.8755181898865472</v>
       </c>
       <c r="V4">
-        <v>0.9217363819972818</v>
+        <v>0.8931285720237481</v>
       </c>
       <c r="W4">
-        <v>0.9217363819972818</v>
+        <v>0.8931285720237481</v>
       </c>
       <c r="X4">
-        <v>0.9293959796946637</v>
+        <v>0.9061322401080601</v>
       </c>
       <c r="Y4">
-        <v>0.9293959796946637</v>
+        <v>0.9061322401080601</v>
       </c>
       <c r="Z4">
-        <v>0.9293959796946637</v>
+        <v>0.9068657966388561</v>
       </c>
       <c r="AA4">
-        <v>0.9300112792482694</v>
+        <v>0.9137388287407259</v>
       </c>
       <c r="AB4">
-        <v>0.9381976246402053</v>
+        <v>0.9272009240954331</v>
       </c>
       <c r="AC4">
-        <v>0.9855607805297406</v>
+        <v>0.9747585047932916</v>
       </c>
       <c r="AD4">
-        <v>0.9855607805297406</v>
+        <v>0.9747585047932916</v>
       </c>
       <c r="AE4">
-        <v>0.9855607805297406</v>
+        <v>0.9747585047932916</v>
       </c>
       <c r="AF4">
-        <v>0.9855607805297406</v>
+        <v>0.9747585047932916</v>
       </c>
       <c r="AG4">
-        <v>0.9855607805297406</v>
+        <v>0.9747585047932916</v>
       </c>
       <c r="AH4">
-        <v>0.987285178769487</v>
+        <v>0.9825967828536023</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2242,94 +2242,94 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2209289622326693</v>
+        <v>0.1909852245331925</v>
       </c>
       <c r="E5">
-        <v>0.3425088310311784</v>
+        <v>0.3003531636590226</v>
       </c>
       <c r="F5">
-        <v>0.680510964766037</v>
+        <v>0.5875163614554699</v>
       </c>
       <c r="G5">
-        <v>0.680510964766037</v>
+        <v>0.5917192499961019</v>
       </c>
       <c r="H5">
-        <v>0.7326844173313504</v>
+        <v>0.6440684173647341</v>
       </c>
       <c r="I5">
-        <v>0.7326844173313504</v>
+        <v>0.6519532496172354</v>
       </c>
       <c r="J5">
-        <v>0.7326844173313504</v>
+        <v>0.6519532496172354</v>
       </c>
       <c r="K5">
-        <v>0.7326844173313504</v>
+        <v>0.6519532496172354</v>
       </c>
       <c r="L5">
-        <v>0.7326844173313504</v>
+        <v>0.6571228434034729</v>
       </c>
       <c r="M5">
-        <v>0.7326844173313504</v>
+        <v>0.6571228434034729</v>
       </c>
       <c r="N5">
-        <v>0.8013222195871218</v>
+        <v>0.7229978063408716</v>
       </c>
       <c r="O5">
-        <v>0.8268072611001773</v>
+        <v>0.7534219053809772</v>
       </c>
       <c r="P5">
-        <v>0.8268072611001773</v>
+        <v>0.7567550740097252</v>
       </c>
       <c r="Q5">
-        <v>0.8424072522578416</v>
+        <v>0.7790584046740551</v>
       </c>
       <c r="R5">
-        <v>0.8424072522578416</v>
+        <v>0.7884033064030118</v>
       </c>
       <c r="S5">
-        <v>0.8957195484527517</v>
+        <v>0.8416880567985061</v>
       </c>
       <c r="T5">
-        <v>0.9471356230796003</v>
+        <v>0.8934150229046185</v>
       </c>
       <c r="U5">
-        <v>0.9471356230796003</v>
+        <v>0.8957490285150023</v>
       </c>
       <c r="V5">
-        <v>0.9613148965599595</v>
+        <v>0.9168852109332464</v>
       </c>
       <c r="W5">
-        <v>0.9613148965599595</v>
+        <v>0.9168852109332464</v>
       </c>
       <c r="X5">
-        <v>0.9613148965599595</v>
+        <v>0.9229656761584432</v>
       </c>
       <c r="Y5">
-        <v>0.9613148965599595</v>
+        <v>0.9229656761584432</v>
       </c>
       <c r="Z5">
-        <v>0.9624175733586464</v>
+        <v>0.9333591704792632</v>
       </c>
       <c r="AA5">
-        <v>0.9624175733586464</v>
+        <v>0.936816492886027</v>
       </c>
       <c r="AB5">
-        <v>0.9859427389658981</v>
+        <v>0.9656305143135672</v>
       </c>
       <c r="AC5">
-        <v>0.9987356347456752</v>
+        <v>0.9856277594696831</v>
       </c>
       <c r="AD5">
-        <v>0.9987356347456752</v>
+        <v>0.9856277594696831</v>
       </c>
       <c r="AE5">
-        <v>0.9987356347456752</v>
+        <v>0.9856277594696831</v>
       </c>
       <c r="AF5">
-        <v>0.9987356347456752</v>
+        <v>0.9856277594696831</v>
       </c>
       <c r="AG5">
-        <v>0.9987356347456752</v>
+        <v>0.9894736753495341</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -2352,103 +2352,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2769405515693146</v>
+        <v>0.2385473593708902</v>
       </c>
       <c r="E6">
-        <v>0.342872034588022</v>
+        <v>0.3018029466906987</v>
       </c>
       <c r="F6">
-        <v>0.5865453666836948</v>
+        <v>0.5127141959512392</v>
       </c>
       <c r="G6">
-        <v>0.5865453666836948</v>
+        <v>0.5172063952995355</v>
       </c>
       <c r="H6">
-        <v>0.6206687701729109</v>
+        <v>0.5540380252768233</v>
       </c>
       <c r="I6">
-        <v>0.6261134213872758</v>
+        <v>0.5670453270344595</v>
       </c>
       <c r="J6">
-        <v>0.6261134213872758</v>
+        <v>0.5670453270344595</v>
       </c>
       <c r="K6">
-        <v>0.6261134213872758</v>
+        <v>0.5670453270344595</v>
       </c>
       <c r="L6">
-        <v>0.6283448857488476</v>
+        <v>0.5773833349023771</v>
       </c>
       <c r="M6">
-        <v>0.6283448857488476</v>
+        <v>0.5773833349023771</v>
       </c>
       <c r="N6">
-        <v>0.6991577601278455</v>
+        <v>0.6446940452910548</v>
       </c>
       <c r="O6">
-        <v>0.7300368798608858</v>
+        <v>0.6788305482173449</v>
       </c>
       <c r="P6">
-        <v>0.7300368798608858</v>
+        <v>0.6788305482173449</v>
       </c>
       <c r="Q6">
-        <v>0.7300368798608858</v>
+        <v>0.6849076346906814</v>
       </c>
       <c r="R6">
-        <v>0.7300368798608858</v>
+        <v>0.6909744441756532</v>
       </c>
       <c r="S6">
-        <v>0.8239114338149708</v>
+        <v>0.7774432064289204</v>
       </c>
       <c r="T6">
-        <v>0.9382698101578684</v>
+        <v>0.8809285146988031</v>
       </c>
       <c r="U6">
-        <v>0.9382698101578684</v>
+        <v>0.8809285146988031</v>
       </c>
       <c r="V6">
-        <v>0.9382698101578684</v>
+        <v>0.8880258731164931</v>
       </c>
       <c r="W6">
-        <v>0.9382698101578684</v>
+        <v>0.8899332047028544</v>
       </c>
       <c r="X6">
-        <v>0.9450615268753078</v>
+        <v>0.9040595555171248</v>
       </c>
       <c r="Y6">
-        <v>0.9450615268753078</v>
+        <v>0.9040595555171248</v>
       </c>
       <c r="Z6">
-        <v>0.9450615268753078</v>
+        <v>0.9108577597183978</v>
       </c>
       <c r="AA6">
-        <v>0.9450615268753078</v>
+        <v>0.9120980746578211</v>
       </c>
       <c r="AB6">
-        <v>0.9604348610151742</v>
+        <v>0.9333534409943834</v>
       </c>
       <c r="AC6">
-        <v>0.9654282607371977</v>
+        <v>0.9459858741538283</v>
       </c>
       <c r="AD6">
-        <v>0.9654282607371977</v>
+        <v>0.9463073124486724</v>
       </c>
       <c r="AE6">
-        <v>0.9654282607371977</v>
+        <v>0.9465786333616589</v>
       </c>
       <c r="AF6">
-        <v>0.9654282607371977</v>
+        <v>0.9465786333616589</v>
       </c>
       <c r="AG6">
-        <v>0.9704903162926056</v>
+        <v>0.9592681010494218</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>0.9922669710327537</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08040149319805825</v>
+        <v>0.08351070364384887</v>
       </c>
       <c r="E7">
-        <v>0.09889368648748426</v>
+        <v>0.08351070364384887</v>
       </c>
       <c r="F7">
-        <v>0.325442680445816</v>
+        <v>0.3826231076180983</v>
       </c>
       <c r="G7">
-        <v>0.5312020255670699</v>
+        <v>0.6510659235718297</v>
       </c>
       <c r="H7">
-        <v>0.554995056932142</v>
+        <v>0.6510659235718297</v>
       </c>
       <c r="I7">
-        <v>0.5978159284416633</v>
+        <v>0.6791364322525599</v>
       </c>
       <c r="J7">
-        <v>0.6523435812641879</v>
+        <v>0.7244771778059672</v>
       </c>
       <c r="K7">
-        <v>0.6523435812641879</v>
+        <v>0.7244771778059672</v>
       </c>
       <c r="L7">
-        <v>0.6703619702951031</v>
+        <v>0.7244771778059672</v>
       </c>
       <c r="M7">
-        <v>0.6703619702951031</v>
+        <v>0.7244771778059672</v>
       </c>
       <c r="N7">
-        <v>0.680122375935705</v>
+        <v>0.7244771778059672</v>
       </c>
       <c r="O7">
-        <v>0.7531720180622877</v>
+        <v>0.797142183895357</v>
       </c>
       <c r="P7">
-        <v>0.7586072395344191</v>
+        <v>0.797142183895357</v>
       </c>
       <c r="Q7">
-        <v>0.7650726214479279</v>
+        <v>0.797142183895357</v>
       </c>
       <c r="R7">
-        <v>0.8050461775329532</v>
+        <v>0.8210122372572837</v>
       </c>
       <c r="S7">
-        <v>0.8050461775329532</v>
+        <v>0.8210122372572837</v>
       </c>
       <c r="T7">
-        <v>0.9129469934810777</v>
+        <v>0.9450908651694643</v>
       </c>
       <c r="U7">
-        <v>0.9225002263056394</v>
+        <v>0.9450908651694643</v>
       </c>
       <c r="V7">
-        <v>0.9267956144594778</v>
+        <v>0.9450908651694643</v>
       </c>
       <c r="W7">
-        <v>0.9267956144594778</v>
+        <v>0.9450908651694643</v>
       </c>
       <c r="X7">
-        <v>0.9267956144594778</v>
+        <v>0.9450908651694643</v>
       </c>
       <c r="Y7">
-        <v>0.9267956144594778</v>
+        <v>0.9450908651694643</v>
       </c>
       <c r="Z7">
-        <v>0.9267956144594778</v>
+        <v>0.9450908651694643</v>
       </c>
       <c r="AA7">
-        <v>0.9284910148218256</v>
+        <v>0.9450908651694643</v>
       </c>
       <c r="AB7">
-        <v>0.9284910148218256</v>
+        <v>0.9450908651694643</v>
       </c>
       <c r="AC7">
-        <v>0.9895046841136579</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01021949649382117</v>
+        <v>0.01440127122168712</v>
       </c>
       <c r="E8">
-        <v>0.1118569363720801</v>
+        <v>0.1117396852449956</v>
       </c>
       <c r="F8">
-        <v>0.2658282753379397</v>
+        <v>0.2565570065955154</v>
       </c>
       <c r="G8">
-        <v>0.5583110600256737</v>
+        <v>0.5270361305221989</v>
       </c>
       <c r="H8">
-        <v>0.5583110600256737</v>
+        <v>0.5270361305221989</v>
       </c>
       <c r="I8">
-        <v>0.6293012047733803</v>
+        <v>0.5965703848956114</v>
       </c>
       <c r="J8">
-        <v>0.6728314447803226</v>
+        <v>0.6411921772677034</v>
       </c>
       <c r="K8">
-        <v>0.6728314447803226</v>
+        <v>0.6411921772677034</v>
       </c>
       <c r="L8">
-        <v>0.6729116051837504</v>
+        <v>0.6463947339470357</v>
       </c>
       <c r="M8">
-        <v>0.6729116051837504</v>
+        <v>0.6463947339470357</v>
       </c>
       <c r="N8">
-        <v>0.6729116051837504</v>
+        <v>0.6463947339470357</v>
       </c>
       <c r="O8">
-        <v>0.7492785267745826</v>
+        <v>0.7208069640475491</v>
       </c>
       <c r="P8">
-        <v>0.7555991321211213</v>
+        <v>0.7316710424613613</v>
       </c>
       <c r="Q8">
-        <v>0.7555991321211213</v>
+        <v>0.7350119603641991</v>
       </c>
       <c r="R8">
-        <v>0.7944715857358674</v>
+        <v>0.775408067046508</v>
       </c>
       <c r="S8">
-        <v>0.7944715857358674</v>
+        <v>0.775408067046508</v>
       </c>
       <c r="T8">
-        <v>0.8762481272528566</v>
+        <v>0.8547280691194385</v>
       </c>
       <c r="U8">
-        <v>0.919285022342073</v>
+        <v>0.8989022839550306</v>
       </c>
       <c r="V8">
-        <v>0.919285022342073</v>
+        <v>0.8989022839550306</v>
       </c>
       <c r="W8">
-        <v>0.919285022342073</v>
+        <v>0.9028233112085589</v>
       </c>
       <c r="X8">
-        <v>0.919285022342073</v>
+        <v>0.9028233112085589</v>
       </c>
       <c r="Y8">
-        <v>0.919285022342073</v>
+        <v>0.9051629317383729</v>
       </c>
       <c r="Z8">
-        <v>0.919285022342073</v>
+        <v>0.9051629317383729</v>
       </c>
       <c r="AA8">
-        <v>0.9239979005210598</v>
+        <v>0.9145684310948927</v>
       </c>
       <c r="AB8">
-        <v>0.9290545035026435</v>
+        <v>0.9242857680620832</v>
       </c>
       <c r="AC8">
-        <v>0.9642475441660059</v>
+        <v>0.9613437992410767</v>
       </c>
       <c r="AD8">
-        <v>0.9999999999999996</v>
+        <v>0.9989093489024861</v>
       </c>
       <c r="AE8">
-        <v>0.9999999999999996</v>
+        <v>0.9989093489024861</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999996</v>
+        <v>0.9989093489024861</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999996</v>
+        <v>0.9989093489024861</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999996</v>
+        <v>0.9989093489024861</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2283348420442656</v>
+        <v>0.2367090083591989</v>
       </c>
       <c r="E9">
-        <v>0.2283348420442656</v>
+        <v>0.2367090083591989</v>
       </c>
       <c r="F9">
-        <v>0.5237176055234254</v>
+        <v>0.544106655256853</v>
       </c>
       <c r="G9">
-        <v>0.6092719832060129</v>
+        <v>0.6302821881612453</v>
       </c>
       <c r="H9">
-        <v>0.7065655814787319</v>
+        <v>0.7288343839548039</v>
       </c>
       <c r="I9">
-        <v>0.7065655814787319</v>
+        <v>0.7288343839548039</v>
       </c>
       <c r="J9">
-        <v>0.7427176428849063</v>
+        <v>0.762925043779024</v>
       </c>
       <c r="K9">
-        <v>0.7427176428849063</v>
+        <v>0.762925043779024</v>
       </c>
       <c r="L9">
-        <v>0.7443586912365304</v>
+        <v>0.762925043779024</v>
       </c>
       <c r="M9">
-        <v>0.7443586912365304</v>
+        <v>0.762925043779024</v>
       </c>
       <c r="N9">
-        <v>0.7619625005119436</v>
+        <v>0.7774602772405541</v>
       </c>
       <c r="O9">
-        <v>0.7808523382074235</v>
+        <v>0.7933513707524894</v>
       </c>
       <c r="P9">
-        <v>0.7808523382074235</v>
+        <v>0.7933513707524894</v>
       </c>
       <c r="Q9">
-        <v>0.7813939626250209</v>
+        <v>0.7933513707524894</v>
       </c>
       <c r="R9">
-        <v>0.7852111548242494</v>
+        <v>0.7933513707524894</v>
       </c>
       <c r="S9">
-        <v>0.8132384634541268</v>
+        <v>0.8188761019106635</v>
       </c>
       <c r="T9">
-        <v>0.9301335280923207</v>
+        <v>0.9380941280697199</v>
       </c>
       <c r="U9">
-        <v>0.9301335280923207</v>
+        <v>0.9380941280697199</v>
       </c>
       <c r="V9">
-        <v>0.9301335280923207</v>
+        <v>0.9380941280697199</v>
       </c>
       <c r="W9">
-        <v>0.9301335280923207</v>
+        <v>0.9380941280697199</v>
       </c>
       <c r="X9">
-        <v>0.9301335280923207</v>
+        <v>0.9380941280697199</v>
       </c>
       <c r="Y9">
-        <v>0.9304615740459681</v>
+        <v>0.9380941280697199</v>
       </c>
       <c r="Z9">
-        <v>0.9304615740459681</v>
+        <v>0.9380941280697199</v>
       </c>
       <c r="AA9">
-        <v>0.9505527024017394</v>
+        <v>0.9552517425930099</v>
       </c>
       <c r="AB9">
-        <v>0.9505527024017394</v>
+        <v>0.9552517425930099</v>
       </c>
       <c r="AC9">
-        <v>0.996813457088596</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.996813457088596</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.996813457088596</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.996813457088596</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.996813457088596</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2795,100 +2795,100 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2470019191828257</v>
+        <v>0.2471495076159555</v>
       </c>
       <c r="F10">
-        <v>0.2852468759389271</v>
+        <v>0.285375062059909</v>
       </c>
       <c r="G10">
-        <v>0.530812861907061</v>
+        <v>0.5310874878165723</v>
       </c>
       <c r="H10">
-        <v>0.5344743730342476</v>
+        <v>0.5347019323310163</v>
       </c>
       <c r="I10">
-        <v>0.6025097972811733</v>
+        <v>0.6027417845242469</v>
       </c>
       <c r="J10">
-        <v>0.6423975124307119</v>
+        <v>0.6426114114516935</v>
       </c>
       <c r="K10">
-        <v>0.6424891502613773</v>
+        <v>0.6426531270244901</v>
       </c>
       <c r="L10">
-        <v>0.6424891502613773</v>
+        <v>0.6426531270244901</v>
       </c>
       <c r="M10">
-        <v>0.6424891502613773</v>
+        <v>0.6426531270244901</v>
       </c>
       <c r="N10">
-        <v>0.6425391058620703</v>
+        <v>0.6426531270244901</v>
       </c>
       <c r="O10">
-        <v>0.7001573851110379</v>
+        <v>0.7002675012435273</v>
       </c>
       <c r="P10">
-        <v>0.7108953203470695</v>
+        <v>0.7109640305035783</v>
       </c>
       <c r="Q10">
-        <v>0.7108953203470695</v>
+        <v>0.7109640305035783</v>
       </c>
       <c r="R10">
-        <v>0.7108953203470695</v>
+        <v>0.7109640305035783</v>
       </c>
       <c r="S10">
-        <v>0.7108953203470695</v>
+        <v>0.7109640305035783</v>
       </c>
       <c r="T10">
-        <v>0.8062509702307573</v>
+        <v>0.8063459625739624</v>
       </c>
       <c r="U10">
-        <v>0.9217805083806029</v>
+        <v>0.9219179205884891</v>
       </c>
       <c r="V10">
-        <v>0.9217805083806029</v>
+        <v>0.9219179205884891</v>
       </c>
       <c r="W10">
-        <v>0.9217805083806029</v>
+        <v>0.9219179205884891</v>
       </c>
       <c r="X10">
-        <v>0.9217805083806029</v>
+        <v>0.9219179205884891</v>
       </c>
       <c r="Y10">
-        <v>0.9217805083806029</v>
+        <v>0.9219179205884891</v>
       </c>
       <c r="Z10">
-        <v>0.9217805083806029</v>
+        <v>0.9219179205884891</v>
       </c>
       <c r="AA10">
-        <v>0.9217805083806029</v>
+        <v>0.9219179205884891</v>
       </c>
       <c r="AB10">
-        <v>0.9483830124662764</v>
+        <v>0.9484917092266554</v>
       </c>
       <c r="AC10">
-        <v>0.9483830124662764</v>
+        <v>0.9484917092266554</v>
       </c>
       <c r="AD10">
-        <v>0.9772902990089163</v>
+        <v>0.9773721239840818</v>
       </c>
       <c r="AE10">
-        <v>0.9772902990089163</v>
+        <v>0.9773721239840818</v>
       </c>
       <c r="AF10">
-        <v>0.9772902990089163</v>
+        <v>0.9773721239840818</v>
       </c>
       <c r="AG10">
-        <v>0.9772902990089163</v>
+        <v>0.9773721239840818</v>
       </c>
       <c r="AH10">
-        <v>0.9772902990089163</v>
+        <v>0.9773721239840818</v>
       </c>
       <c r="AI10">
-        <v>0.997736141537147</v>
+        <v>0.9977843261727684</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2905,94 +2905,94 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2728962491494129</v>
+        <v>0.2406552107380849</v>
       </c>
       <c r="F11">
-        <v>0.2846332942317791</v>
+        <v>0.2585961810140179</v>
       </c>
       <c r="G11">
-        <v>0.5596478404217492</v>
+        <v>0.5010578565793574</v>
       </c>
       <c r="H11">
-        <v>0.5665111879097792</v>
+        <v>0.5148425810057812</v>
       </c>
       <c r="I11">
-        <v>0.6809000136557879</v>
+        <v>0.6203240744819658</v>
       </c>
       <c r="J11">
-        <v>0.6809000136557879</v>
+        <v>0.6203240744819658</v>
       </c>
       <c r="K11">
-        <v>0.6830608272516798</v>
+        <v>0.6300985199378418</v>
       </c>
       <c r="L11">
-        <v>0.6830608272516798</v>
+        <v>0.6300985199378418</v>
       </c>
       <c r="M11">
-        <v>0.6830608272516798</v>
+        <v>0.6335418156425965</v>
       </c>
       <c r="N11">
-        <v>0.6830608272516798</v>
+        <v>0.6335418156425965</v>
       </c>
       <c r="O11">
-        <v>0.7380093941558785</v>
+        <v>0.6883331864094593</v>
       </c>
       <c r="P11">
-        <v>0.744131187227678</v>
+        <v>0.7014855198421897</v>
       </c>
       <c r="Q11">
-        <v>0.744131187227678</v>
+        <v>0.7019780838152698</v>
       </c>
       <c r="R11">
-        <v>0.7672332235461667</v>
+        <v>0.7296110172753234</v>
       </c>
       <c r="S11">
-        <v>0.7755517701688415</v>
+        <v>0.744636722547708</v>
       </c>
       <c r="T11">
-        <v>0.8268694797914603</v>
+        <v>0.7963317306013273</v>
       </c>
       <c r="U11">
-        <v>0.9117186036070137</v>
+        <v>0.876622029677828</v>
       </c>
       <c r="V11">
-        <v>0.9117186036070137</v>
+        <v>0.876622029677828</v>
       </c>
       <c r="W11">
-        <v>0.9117186036070137</v>
+        <v>0.8780684605061251</v>
       </c>
       <c r="X11">
-        <v>0.9117186036070137</v>
+        <v>0.8780684605061251</v>
       </c>
       <c r="Y11">
-        <v>0.9117186036070137</v>
+        <v>0.8817997702048092</v>
       </c>
       <c r="Z11">
-        <v>0.9182682028154979</v>
+        <v>0.8953169328961411</v>
       </c>
       <c r="AA11">
-        <v>0.9182682028154979</v>
+        <v>0.8953169328961411</v>
       </c>
       <c r="AB11">
-        <v>0.9322176332461777</v>
+        <v>0.9151446056691943</v>
       </c>
       <c r="AC11">
-        <v>0.9373454522670873</v>
+        <v>0.927449286894629</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.9888122493977046</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.9941622595877575</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9941622595877575</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9941622595877575</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9947779106375306</v>
       </c>
       <c r="AI11">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6527298715900096</v>
+        <v>0.5744757146847514</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.708622437412892</v>
+        <v>0.6269741529355128</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6435990020365669</v>
+        <v>0.5854728398412897</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.680510964766037</v>
+        <v>0.5875163614554699</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5865453666836948</v>
+        <v>0.5127141959512392</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5312020255670699</v>
+        <v>0.6510659235718297</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5583110600256737</v>
+        <v>0.5270361305221989</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5237176055234254</v>
+        <v>0.544106655256853</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.530812861907061</v>
+        <v>0.5310874878165723</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5596478404217492</v>
+        <v>0.5010578565793574</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7892915473540065</v>
+        <v>0.7256385549644675</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -3571,16 +3571,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.708622437412892</v>
+        <v>0.7471255932294567</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -3612,16 +3612,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7098301411834607</v>
+        <v>0.745487234294398</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -3653,16 +3653,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7326844173313504</v>
+        <v>0.7229978063408716</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -3694,16 +3694,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7300368798608858</v>
+        <v>0.7774432064289204</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -3735,16 +3735,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7531720180622877</v>
+        <v>0.7244771778059672</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>17</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7492785267745826</v>
+        <v>0.7208069640475491</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7065655814787319</v>
+        <v>0.7288343839548039</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7001573851110379</v>
+        <v>0.7002675012435273</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -3899,16 +3899,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7380093941558785</v>
+        <v>0.7014855198421897</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>17</v>
@@ -3994,16 +3994,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8122083176742328</v>
+        <v>0.8453264785814099</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -4035,16 +4035,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8192084678180878</v>
+        <v>0.8438181054107307</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9031371375841843</v>
+        <v>0.8642666169668336</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -4117,16 +4117,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8013222195871218</v>
+        <v>0.8416880567985061</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -4158,16 +4158,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8809285146988031</v>
+      </c>
+      <c r="G6">
         <v>18</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8239114338149708</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8050461775329532</v>
+        <v>0.8210122372572837</v>
       </c>
       <c r="G7">
         <v>16</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8762481272528566</v>
+        <v>0.8547280691194385</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8132384634541268</v>
+        <v>0.8188761019106635</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8062509702307573</v>
+        <v>0.8063459625739624</v>
       </c>
       <c r="G10">
         <v>17</v>
@@ -4363,16 +4363,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8268694797914603</v>
+        <v>0.876622029677828</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <v>17</v>
@@ -4458,16 +4458,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9420497820202252</v>
+        <v>0.9147573923657032</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>17</v>
@@ -4499,16 +4499,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9022009045941779</v>
+        <v>0.9127080427268112</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -4540,16 +4540,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9031371375841843</v>
+        <v>0.9061322401080601</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -4581,16 +4581,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9471356230796003</v>
+        <v>0.9168852109332464</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -4622,16 +4622,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9382698101578684</v>
+        <v>0.9040595555171248</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9129469934810777</v>
+        <v>0.9450908651694643</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -4704,16 +4704,16 @@
         <v>2</v>
       </c>
       <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.9028233112085589</v>
+      </c>
+      <c r="G8">
         <v>20</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.919285022342073</v>
-      </c>
-      <c r="G8">
-        <v>18</v>
       </c>
       <c r="H8">
         <v>17</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9301335280923207</v>
+        <v>0.9380941280697199</v>
       </c>
       <c r="G9">
         <v>18</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9217805083806029</v>
+        <v>0.9219179205884891</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -4827,16 +4827,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9117186036070137</v>
+        <v>0.9151446056691943</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H11">
         <v>17</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/17_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/17_11R22.xlsx
@@ -19,7 +19,172 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="117">
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -562,15 +727,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:CM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:91">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -677,10 +842,175 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -689,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1865404572397509</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1151321040006757</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2728031534443248</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.001642344870700295</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.04014870637222122</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.009143665214079036</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -713,58 +1043,58 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01118899527560271</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.08903912854711286</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.02795070679973339</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0009460864817340976</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.02309364656055339</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.007574322848717788</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06012316092620365</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.05196033055630032</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.00119264910849722</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.01627793411949575</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.005380783782138447</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.005959795404832889</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.002288321470759553</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03089711669049524</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.02534915453377509</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -776,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.004415642053593689</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.01095179369870192</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -787,10 +1117,175 @@
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0.1797952377679845</v>
+      </c>
+      <c r="BH2">
+        <v>0.1116182622937745</v>
+      </c>
+      <c r="BI2">
+        <v>0.2621543660311506</v>
+      </c>
+      <c r="BJ2">
+        <v>0.003264152812022903</v>
+      </c>
+      <c r="BK2">
+        <v>0.04002802068754902</v>
+      </c>
+      <c r="BL2">
+        <v>0.01042602267565776</v>
+      </c>
+      <c r="BM2">
+        <v>0.001457649773048694</v>
+      </c>
+      <c r="BN2">
+        <v>0.0002157955085781909</v>
+      </c>
+      <c r="BO2">
+        <v>0.01237879726176681</v>
+      </c>
+      <c r="BP2">
+        <v>0.001696127491581011</v>
+      </c>
+      <c r="BQ2">
+        <v>0.08670604871015031</v>
+      </c>
+      <c r="BR2">
+        <v>0.02838200618132376</v>
+      </c>
+      <c r="BS2">
+        <v>0.002599401575576714</v>
+      </c>
+      <c r="BT2">
+        <v>0.02374473810577131</v>
+      </c>
+      <c r="BU2">
+        <v>0.008927696344063756</v>
+      </c>
+      <c r="BV2">
+        <v>0.05909858927604852</v>
+      </c>
+      <c r="BW2">
+        <v>0.05130514410212304</v>
+      </c>
+      <c r="BX2">
+        <v>0.002834806726307563</v>
+      </c>
+      <c r="BY2">
+        <v>0.0172374509487979</v>
+      </c>
+      <c r="BZ2">
+        <v>0.0006017551941165028</v>
+      </c>
+      <c r="CA2">
+        <v>0.006833419521249879</v>
+      </c>
+      <c r="CB2">
+        <v>0.0002493553024250923</v>
+      </c>
+      <c r="CC2">
+        <v>0.007386229653526118</v>
+      </c>
+      <c r="CD2">
+        <v>0.003880897615977494</v>
+      </c>
+      <c r="CE2">
+        <v>0.03119508484436061</v>
+      </c>
+      <c r="CF2">
+        <v>0.02589817961222066</v>
+      </c>
+      <c r="CG2">
+        <v>0.0002444178897940853</v>
+      </c>
+      <c r="CH2">
+        <v>0.0005361962843867833</v>
+      </c>
+      <c r="CI2">
+        <v>0.0003452104191319599</v>
+      </c>
+      <c r="CJ2">
+        <v>0.005911952480330552</v>
+      </c>
+      <c r="CK2">
+        <v>0.01215232955375699</v>
+      </c>
+      <c r="CL2">
+        <v>0.0008946573554464339</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:91">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -802,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2098889553416745</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1111394905399323</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3059457070539059</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0003591372328056819</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.06365036264374904</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.004609923583495775</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -826,61 +1321,61 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.003884452290580065</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.04764756454331335</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0184893889594238</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01028509722587158</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.06791802599597861</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.05082884391856019</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.002424806230310346</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01563628716720985</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>4.1528893659218E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.006718554335060645</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.01220901841489648</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.001668920287990102</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.02748221491259724</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.007956604858421307</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.001126062288627008</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -889,18 +1384,183 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.007090806386839021</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.02065183886695985</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002383784032431233</v>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0.2023082614374573</v>
+      </c>
+      <c r="BI3">
+        <v>0.1078788346575733</v>
+      </c>
+      <c r="BJ3">
+        <v>0.2941627744794725</v>
+      </c>
+      <c r="BK3">
+        <v>0.001944840156770465</v>
+      </c>
+      <c r="BL3">
+        <v>0.06246723536924926</v>
+      </c>
+      <c r="BM3">
+        <v>0.006009665411928085</v>
+      </c>
+      <c r="BN3">
+        <v>0.001601414264820153</v>
+      </c>
+      <c r="BO3">
+        <v>3.010417129077878E-05</v>
+      </c>
+      <c r="BP3">
+        <v>0.005315931643620279</v>
+      </c>
+      <c r="BQ3">
+        <v>0.0002058158539047389</v>
+      </c>
+      <c r="BR3">
+        <v>0.04716451899977585</v>
+      </c>
+      <c r="BS3">
+        <v>0.01928193946517446</v>
+      </c>
+      <c r="BT3">
+        <v>0.001178540247427688</v>
+      </c>
+      <c r="BU3">
+        <v>0.01143656463615961</v>
+      </c>
+      <c r="BV3">
+        <v>0.00151386460672274</v>
+      </c>
+      <c r="BW3">
+        <v>0.06654819930003752</v>
+      </c>
+      <c r="BX3">
+        <v>0.0502066254905234</v>
+      </c>
+      <c r="BY3">
+        <v>0.003920141387445101</v>
+      </c>
+      <c r="BZ3">
+        <v>0.01655365362256937</v>
+      </c>
+      <c r="CA3">
+        <v>0.00160538547583473</v>
+      </c>
+      <c r="CB3">
+        <v>0.008026048929149878</v>
+      </c>
+      <c r="CC3">
+        <v>0.0005308668847593426</v>
+      </c>
+      <c r="CD3">
+        <v>0.01327631916459214</v>
+      </c>
+      <c r="CE3">
+        <v>0.003197323533317209</v>
+      </c>
+      <c r="CF3">
+        <v>0.0278813521464921</v>
+      </c>
+      <c r="CG3">
+        <v>0.00920993788976549</v>
+      </c>
+      <c r="CH3">
+        <v>0.002678214191249897</v>
+      </c>
+      <c r="CI3">
+        <v>0.0002496664725626657</v>
+      </c>
+      <c r="CJ3">
+        <v>3.242716715357778E-06</v>
+      </c>
+      <c r="CK3">
+        <v>0.008382015900086286</v>
+      </c>
+      <c r="CL3">
+        <v>0.02134978768712492</v>
+      </c>
+      <c r="CM3">
+        <v>0.003880913806427292</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:91">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -909,25 +1569,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1066358996520016</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02738275157560749</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.278516684647441</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1729375039662396</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.03274175332721067</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0375741268485489</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01182721525215326</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -939,52 +1599,52 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.01220056518025639</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.06567073384493911</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.006634630247910441</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.00320474312591606</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.005350841122438076</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1035891681761711</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01125157291971352</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.01761038213720086</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01300366808431208</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0007335565307959336</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.006873032101869717</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0134620953547072</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.04755758069785852</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -999,18 +1659,183 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.007838278060310728</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01740321714639771</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
       </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0.09898415696161875</v>
+      </c>
+      <c r="BH4">
+        <v>0.02867119793443797</v>
+      </c>
+      <c r="BI4">
+        <v>0.2514758482859121</v>
+      </c>
+      <c r="BJ4">
+        <v>0.1578065772784708</v>
+      </c>
+      <c r="BK4">
+        <v>0.03342567494554484</v>
+      </c>
+      <c r="BL4">
+        <v>0.03771293027428417</v>
+      </c>
+      <c r="BM4">
+        <v>0.01487041128174172</v>
+      </c>
+      <c r="BN4">
+        <v>0.0002780914845967314</v>
+      </c>
+      <c r="BO4">
+        <v>0.0006671589125555335</v>
+      </c>
+      <c r="BP4">
+        <v>0.004377370669289412</v>
+      </c>
+      <c r="BQ4">
+        <v>0.01520164529369809</v>
+      </c>
+      <c r="BR4">
+        <v>0.06264008616007559</v>
+      </c>
+      <c r="BS4">
+        <v>0.01026357829768733</v>
+      </c>
+      <c r="BT4">
+        <v>0.003509275043011243</v>
+      </c>
+      <c r="BU4">
+        <v>0.007220601223209732</v>
+      </c>
+      <c r="BV4">
+        <v>0.009124607614884072</v>
+      </c>
+      <c r="BW4">
+        <v>0.09628111347847032</v>
+      </c>
+      <c r="BX4">
+        <v>0.0143597045562987</v>
+      </c>
+      <c r="BY4">
+        <v>0.02000120527674793</v>
+      </c>
+      <c r="BZ4">
+        <v>0.001434105979779407</v>
+      </c>
+      <c r="CA4">
+        <v>0.01591415379283109</v>
+      </c>
+      <c r="CB4">
+        <v>0.003089419300730711</v>
+      </c>
+      <c r="CC4">
+        <v>0.005028178006863656</v>
+      </c>
+      <c r="CD4">
+        <v>0.01047508711716394</v>
+      </c>
+      <c r="CE4">
+        <v>0.01632086795703267</v>
+      </c>
+      <c r="CF4">
+        <v>0.04657019586554643</v>
+      </c>
+      <c r="CG4">
+        <v>4.77673436070056E-05</v>
+      </c>
+      <c r="CH4">
+        <v>0.002251065717449419</v>
+      </c>
+      <c r="CI4">
+        <v>0.0007479129201089401</v>
+      </c>
+      <c r="CJ4">
+        <v>0.0001011533487818075</v>
+      </c>
+      <c r="CK4">
+        <v>0.01133144804634234</v>
+      </c>
+      <c r="CL4">
+        <v>0.01981740963122773</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:91">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1019,22 +1844,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1909852245331925</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1093679391258301</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2871631977964473</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.004202888540632051</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.05234916736863213</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.00788483225250132</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1043,58 +1868,58 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.005169593786237499</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.06587496293739865</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.03042409904010561</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.003333168628747947</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.02230333066432991</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.009344901728956693</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.05328475039549435</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.05172696610611244</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.002334005610383764</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.02113618241824406</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.006080465225196773</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.01039349432082006</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003457322406763778</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.02881402142754019</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01999724515611587</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1106,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.00384591587985111</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.01052632465046595</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1117,10 +1942,175 @@
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0.1881348307829922</v>
+      </c>
+      <c r="BH5">
+        <v>0.1080297428466273</v>
+      </c>
+      <c r="BI5">
+        <v>0.2825308275052674</v>
+      </c>
+      <c r="BJ5">
+        <v>0.004813180534942786</v>
+      </c>
+      <c r="BK5">
+        <v>0.05206740958796868</v>
+      </c>
+      <c r="BL5">
+        <v>0.008426905536257618</v>
+      </c>
+      <c r="BM5">
+        <v>3.773454765830445E-05</v>
+      </c>
+      <c r="BN5">
+        <v>0.0004776586721812389</v>
+      </c>
+      <c r="BO5">
+        <v>0.005761974755692308</v>
+      </c>
+      <c r="BP5">
+        <v>0.0006881627221878802</v>
+      </c>
+      <c r="BQ5">
+        <v>0.06534260047477072</v>
+      </c>
+      <c r="BR5">
+        <v>0.03054856688569724</v>
+      </c>
+      <c r="BS5">
+        <v>0.003959574712674172</v>
+      </c>
+      <c r="BT5">
+        <v>0.02257825935089551</v>
+      </c>
+      <c r="BU5">
+        <v>0.009859922981286602</v>
+      </c>
+      <c r="BV5">
+        <v>0.05298565821954849</v>
+      </c>
+      <c r="BW5">
+        <v>0.05145673641255625</v>
+      </c>
+      <c r="BX5">
+        <v>0.002978924093759974</v>
+      </c>
+      <c r="BY5">
+        <v>0.02143273591893085</v>
+      </c>
+      <c r="BZ5">
+        <v>0.0002445358971425718</v>
+      </c>
+      <c r="CA5">
+        <v>0.006655969653370856</v>
+      </c>
+      <c r="CB5">
+        <v>3.839325220185038E-05</v>
+      </c>
+      <c r="CC5">
+        <v>0.01088908734716073</v>
+      </c>
+      <c r="CD5">
+        <v>0.004081428181041217</v>
+      </c>
+      <c r="CE5">
+        <v>0.02896832064134848</v>
+      </c>
+      <c r="CF5">
+        <v>0.02031490078043761</v>
+      </c>
+      <c r="CG5">
+        <v>8.959339991646358E-06</v>
+      </c>
+      <c r="CH5">
+        <v>3.157688077458348E-05</v>
+      </c>
+      <c r="CI5">
+        <v>0.0005532193873814004</v>
+      </c>
+      <c r="CJ5">
+        <v>0.004462821830410866</v>
+      </c>
+      <c r="CK5">
+        <v>0.01101945660881643</v>
+      </c>
+      <c r="CL5">
+        <v>0.0006199236580262098</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:91">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1129,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2385473593708902</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06325558731980849</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2109112492605405</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.004492199348296221</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03683162997728782</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01300730175763617</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1153,84 +2143,249 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01033800786791765</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.06731071038867768</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03413650292629012</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.006077086473336498</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.006066809484971821</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0864687622532672</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1034853082698827</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.007097358417689966</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.00190733158636136</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01412635081427035</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.006798204201273017</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001240314939423327</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.02125536633656233</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01263243315944486</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0003214382948441313</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0002713209129864964</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01268946768776287</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.03299886998333185</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.007733028967246388</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0.002774689550745921</v>
+      </c>
+      <c r="BG6">
+        <v>0.2287678328351331</v>
+      </c>
+      <c r="BH6">
+        <v>0.06213236387548215</v>
+      </c>
+      <c r="BI6">
+        <v>0.2024964561779521</v>
+      </c>
+      <c r="BJ6">
+        <v>0.006270844548509106</v>
+      </c>
+      <c r="BK6">
+        <v>0.03701328114832701</v>
+      </c>
+      <c r="BL6">
+        <v>0.01436545199423867</v>
+      </c>
+      <c r="BM6">
+        <v>0.0009847871535999632</v>
+      </c>
+      <c r="BN6">
+        <v>0.001563754035855027</v>
+      </c>
+      <c r="BO6">
+        <v>0.01182797385764502</v>
+      </c>
+      <c r="BP6">
+        <v>0.002000480136621928</v>
+      </c>
+      <c r="BQ6">
+        <v>0.06598723582048822</v>
+      </c>
+      <c r="BR6">
+        <v>0.03445124555022735</v>
+      </c>
+      <c r="BS6">
+        <v>0.0003142113993860167</v>
+      </c>
+      <c r="BT6">
+        <v>0.007777466372448672</v>
+      </c>
+      <c r="BU6">
+        <v>0.007767696884950184</v>
+      </c>
+      <c r="BV6">
+        <v>0.0841992198711651</v>
+      </c>
+      <c r="BW6">
+        <v>0.1003754504630145</v>
+      </c>
+      <c r="BX6">
+        <v>5.235955066282622E-05</v>
+      </c>
+      <c r="BY6">
+        <v>0.0087473549868679</v>
+      </c>
+      <c r="BZ6">
+        <v>0.003813623387077868</v>
+      </c>
+      <c r="CA6">
+        <v>0.01542923988433286</v>
+      </c>
+      <c r="CB6">
+        <v>9.376723889334148E-06</v>
+      </c>
+      <c r="CC6">
+        <v>0.008462973680428894</v>
+      </c>
+      <c r="CD6">
+        <v>0.003179545526686206</v>
+      </c>
+      <c r="CE6">
+        <v>0.02220620853994994</v>
+      </c>
+      <c r="CF6">
+        <v>0.01400909525297843</v>
+      </c>
+      <c r="CG6">
+        <v>0.002306045083431489</v>
+      </c>
+      <c r="CH6">
+        <v>0.002258402610934586</v>
+      </c>
+      <c r="CI6">
+        <v>0.001022228321294844</v>
+      </c>
+      <c r="CJ6">
+        <v>0.0140633132876412</v>
+      </c>
+      <c r="CK6">
+        <v>0.03336979148803351</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:91">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1239,25 +2394,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08351070364384887</v>
+        <v>0.07217904111970772</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0520703015701993</v>
       </c>
       <c r="F7">
-        <v>0.2991124039742494</v>
+        <v>0.04338926559069399</v>
       </c>
       <c r="G7">
-        <v>0.2684428159537314</v>
+        <v>0.03058706849593774</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01445127012788152</v>
       </c>
       <c r="I7">
-        <v>0.02807050868073027</v>
+        <v>0.003767612698514458</v>
       </c>
       <c r="J7">
-        <v>0.04534074555340723</v>
+        <v>0.001784784959062912</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1269,78 +2424,243 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.008115215876836513</v>
       </c>
       <c r="O7">
-        <v>0.07266500608938976</v>
+        <v>0.0145532867633889</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.02884000699057848</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.04732248820434446</v>
       </c>
       <c r="R7">
-        <v>0.02387005336192673</v>
+        <v>0.07114586845243671</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.08200532624254625</v>
       </c>
       <c r="T7">
-        <v>0.1240786279121807</v>
+        <v>0.07514682685615059</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.07203253043210354</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.05809952932949804</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.04834863041794323</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.03088745361156836</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.02414003734414086</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.01310757717620025</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.000270569228778002</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.05490913483053564</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.004044876384566269</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.0169575756496792</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.03557383762298638</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.04642558537961138</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.05191787842984218</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.05283555504480247</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:91">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1349,31 +2669,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01440127122168712</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09733841402330846</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1448173213505199</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2704791239266834</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.06953425437341257</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04462179237209198</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.005202556679332287</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1382,52 +2702,52 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.07441223010051334</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.01086407841381225</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.003340917902837863</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.04039610668230881</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.07932000207293061</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.04417421483559207</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.003921027253528288</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.002339620529814065</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.009405499356519742</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.009717336967190512</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.03705803117899354</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.03756554966140938</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1442,15 +2762,180 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.001090651097513825</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0.01798400992209666</v>
+      </c>
+      <c r="BH8">
+        <v>0.08940453122471828</v>
+      </c>
+      <c r="BI8">
+        <v>0.1302905347406485</v>
+      </c>
+      <c r="BJ8">
+        <v>0.2385029850933663</v>
+      </c>
+      <c r="BK8">
+        <v>0.0005776236192951603</v>
+      </c>
+      <c r="BL8">
+        <v>0.06546124707606224</v>
+      </c>
+      <c r="BM8">
+        <v>0.04400812049172944</v>
+      </c>
+      <c r="BN8">
+        <v>0.005582493986907863</v>
+      </c>
+      <c r="BO8">
+        <v>0.01006262553705193</v>
+      </c>
+      <c r="BP8">
+        <v>0.0001986415025669408</v>
+      </c>
+      <c r="BQ8">
+        <v>0.004174616961944498</v>
+      </c>
+      <c r="BR8">
+        <v>0.06966186886700561</v>
+      </c>
+      <c r="BS8">
+        <v>0.01493799042163506</v>
+      </c>
+      <c r="BT8">
+        <v>0.008459493244293383</v>
+      </c>
+      <c r="BU8">
+        <v>0.04036921198065107</v>
+      </c>
+      <c r="BV8">
+        <v>0.00556294606927213</v>
+      </c>
+      <c r="BW8">
+        <v>0.07388814940747274</v>
+      </c>
+      <c r="BX8">
+        <v>0.04362269340923846</v>
+      </c>
+      <c r="BY8">
+        <v>0.002592911589752223</v>
+      </c>
+      <c r="BZ8">
+        <v>0.008959048821436144</v>
+      </c>
+      <c r="CA8">
+        <v>0.0001929163020940421</v>
+      </c>
+      <c r="CB8">
+        <v>0.007597235660482487</v>
+      </c>
+      <c r="CC8">
+        <v>0.003845776302764215</v>
+      </c>
+      <c r="CD8">
+        <v>0.01368194912199578</v>
+      </c>
+      <c r="CE8">
+        <v>0.01395048507541224</v>
+      </c>
+      <c r="CF8">
+        <v>0.03749466042822374</v>
+      </c>
+      <c r="CG8">
+        <v>0.03793170507867131</v>
+      </c>
+      <c r="CH8">
+        <v>0.0008582906156771389</v>
+      </c>
+      <c r="CI8">
+        <v>0.0001603231386943519</v>
+      </c>
+      <c r="CJ8">
+        <v>5.977429824457086E-08</v>
+      </c>
+      <c r="CK8">
+        <v>0.003463156865032336</v>
+      </c>
+      <c r="CL8">
+        <v>0.006521697669509175</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:91">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1459,25 +2944,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2367090083591989</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3073976468976541</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.08617553290439232</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.09855219579355867</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03409065982422016</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1489,10 +2974,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.01453523346153008</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01589109351193526</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1504,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.02552473115817412</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.1192180261590565</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1528,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.01715761452329004</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.04474825740698996</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1557,10 +3042,175 @@
       <c r="AJ9">
         <v>0</v>
       </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0.1895557938464816</v>
+      </c>
+      <c r="BH9">
+        <v>0.000719051635311285</v>
+      </c>
+      <c r="BI9">
+        <v>0.2422803042681765</v>
+      </c>
+      <c r="BJ9">
+        <v>0.07727744248011276</v>
+      </c>
+      <c r="BK9">
+        <v>0.08650881975625964</v>
+      </c>
+      <c r="BL9">
+        <v>0.005597919566322967</v>
+      </c>
+      <c r="BM9">
+        <v>0.03842891617790838</v>
+      </c>
+      <c r="BN9">
+        <v>0.0002230483540677261</v>
+      </c>
+      <c r="BO9">
+        <v>0.01129047208423498</v>
+      </c>
+      <c r="BP9">
+        <v>0.0003254116477166471</v>
+      </c>
+      <c r="BQ9">
+        <v>0.02384311706820504</v>
+      </c>
+      <c r="BR9">
+        <v>0.02485441193589524</v>
+      </c>
+      <c r="BS9">
+        <v>0.001489696429297282</v>
+      </c>
+      <c r="BT9">
+        <v>0.01042591748765825</v>
+      </c>
+      <c r="BU9">
+        <v>0.01300172750448747</v>
+      </c>
+      <c r="BV9">
+        <v>0.03203984992111879</v>
+      </c>
+      <c r="BW9">
+        <v>0.1019228355161744</v>
+      </c>
+      <c r="BX9">
+        <v>0.008525189596068522</v>
+      </c>
+      <c r="BY9">
+        <v>0.006259963162837385</v>
+      </c>
+      <c r="BZ9">
+        <v>0.000743622162431026</v>
+      </c>
+      <c r="CA9">
+        <v>0.006210863448969948</v>
+      </c>
+      <c r="CB9">
+        <v>0.0102579656748743</v>
+      </c>
+      <c r="CC9">
+        <v>2.330126672607925E-05</v>
+      </c>
+      <c r="CD9">
+        <v>0.02579907152537289</v>
+      </c>
+      <c r="CE9">
+        <v>0.002383919695271878</v>
+      </c>
+      <c r="CF9">
+        <v>0.046378094807474</v>
+      </c>
+      <c r="CG9">
+        <v>0.006115756527073988</v>
+      </c>
+      <c r="CH9">
+        <v>0.0008302493611181015</v>
+      </c>
+      <c r="CI9">
+        <v>0.0009729119099194377</v>
+      </c>
+      <c r="CJ9">
+        <v>0.004676284371376574</v>
+      </c>
+      <c r="CK9">
+        <v>0.0125058034812405</v>
+      </c>
+      <c r="CL9">
+        <v>0.008532267329816668</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:91">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1572,25 +3222,25 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2471495076159555</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.03822555444395355</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.2457124257566633</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.003614444514443908</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.06803985219323064</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03986962692744671</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>4.171557279648163E-05</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1602,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.05761437421903721</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.01069652926005098</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1617,60 +3267,225 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.09538193207038419</v>
+        <v>0.07251624787907643</v>
       </c>
       <c r="U10">
-        <v>0.1155719580145266</v>
+        <v>0.06197624679209252</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.03898282563310996</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.05045698005622744</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.05529697392467019</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.05018187265434231</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.03742477039417416</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.005873446732168794</v>
       </c>
       <c r="AB10">
-        <v>0.02657378863816633</v>
+        <v>1.27040954118705E-05</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.0003157835910920213</v>
       </c>
       <c r="AD10">
-        <v>0.02888041475742638</v>
+        <v>9.853200807011579E-05</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.006889076823788915</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.03199288658320604</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.03321076409236404</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.01211846150739003</v>
       </c>
       <c r="AI10">
-        <v>0.02041220218868657</v>
+        <v>0.03645248683271243</v>
       </c>
       <c r="AJ10">
-        <v>0.002215673827231663</v>
+        <v>0.07463694132736425</v>
+      </c>
+      <c r="AK10">
+        <v>0.06697081337833391</v>
+      </c>
+      <c r="AL10">
+        <v>0.05378140425386361</v>
+      </c>
+      <c r="AM10">
+        <v>0.05862613675052904</v>
+      </c>
+      <c r="AN10">
+        <v>0.05111338017693102</v>
+      </c>
+      <c r="AO10">
+        <v>0.02962537925265237</v>
+      </c>
+      <c r="AP10">
+        <v>0.01352991960701465</v>
+      </c>
+      <c r="AQ10">
+        <v>0.0192661420539453</v>
+      </c>
+      <c r="AR10">
+        <v>0.007727489370728617</v>
+      </c>
+      <c r="AS10">
+        <v>3.52891507437081E-05</v>
+      </c>
+      <c r="AT10">
+        <v>0.0006785310876898839</v>
+      </c>
+      <c r="AU10">
+        <v>0.001620436848199119</v>
+      </c>
+      <c r="AV10">
+        <v>0.006500273808288366</v>
+      </c>
+      <c r="AW10">
+        <v>0.02554579219699969</v>
+      </c>
+      <c r="AX10">
+        <v>0.05004460498729649</v>
+      </c>
+      <c r="AY10">
+        <v>0.04649740614952286</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:91">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1682,85 +3497,85 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2406552107380849</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.017940970275933</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2424616755653395</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01378472442642372</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1054814934761846</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.009774445455876024</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.003443295704754692</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.05479137076686277</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.01315233343273037</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.0004925639730802227</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.02763293346005353</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01502570527238452</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.05169500805361934</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.08029029907650065</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.0014464308282971</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.003731309698684087</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.01351716269133196</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.01982767277305325</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.01230468122543468</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.06136296250307561</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.005350010190052886</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1769,13 +3584,178 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.0006156510497730932</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.005222089362469581</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0.2261239509768107</v>
+      </c>
+      <c r="BI11">
+        <v>0.0192953148454785</v>
+      </c>
+      <c r="BJ11">
+        <v>0.2278015655544191</v>
+      </c>
+      <c r="BK11">
+        <v>0.01543552276978229</v>
+      </c>
+      <c r="BL11">
+        <v>0.1005918093227062</v>
+      </c>
+      <c r="BM11">
+        <v>0.002634025449057571</v>
+      </c>
+      <c r="BN11">
+        <v>0.0117112861504113</v>
+      </c>
+      <c r="BO11">
+        <v>0.001960708088140776</v>
+      </c>
+      <c r="BP11">
+        <v>0.005831720185296558</v>
+      </c>
+      <c r="BQ11">
+        <v>0.001141651341246268</v>
+      </c>
+      <c r="BR11">
+        <v>0.0535172759496119</v>
+      </c>
+      <c r="BS11">
+        <v>0.01484823851505336</v>
+      </c>
+      <c r="BT11">
+        <v>0.003091456166322036</v>
+      </c>
+      <c r="BU11">
+        <v>0.02829597651240676</v>
+      </c>
+      <c r="BV11">
+        <v>0.01658798780885013</v>
+      </c>
+      <c r="BW11">
+        <v>0.05064176841305237</v>
+      </c>
+      <c r="BX11">
+        <v>0.07719743467744712</v>
+      </c>
+      <c r="BY11">
+        <v>0.001981381058342311</v>
+      </c>
+      <c r="BZ11">
+        <v>0.003977286278963247</v>
+      </c>
+      <c r="CA11">
+        <v>0.0005799693314347805</v>
+      </c>
+      <c r="CB11">
+        <v>0.00609919092011595</v>
+      </c>
+      <c r="CC11">
+        <v>0.01518704548950094</v>
+      </c>
+      <c r="CD11">
+        <v>0.000307966635461425</v>
+      </c>
+      <c r="CE11">
+        <v>0.0210474439570037</v>
+      </c>
+      <c r="CF11">
+        <v>0.01406104704680742</v>
+      </c>
+      <c r="CG11">
+        <v>0.05962013382341642</v>
+      </c>
+      <c r="CH11">
+        <v>0.007602433884015337</v>
+      </c>
+      <c r="CI11">
+        <v>0.0001606369161688907</v>
+      </c>
+      <c r="CJ11">
+        <v>5.230242584008774E-05</v>
+      </c>
+      <c r="CK11">
+        <v>0.003205763774784573</v>
+      </c>
+      <c r="CL11">
+        <v>0.007483637303038099</v>
+      </c>
+      <c r="CM11">
+        <v>0.001926068429014365</v>
       </c>
     </row>
   </sheetData>
@@ -1785,15 +3765,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:CM11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:91">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1900,10 +3880,175 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:91">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1912,988 +4057,2473 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1865404572397509</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3016725612404267</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5744757146847514</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5761180595554517</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.6162667659276729</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.625410431141752</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.625410431141752</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.625410431141752</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6365994264173547</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6365994264173547</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7256385549644675</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7535892617642009</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.754535348245935</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.7776289948064884</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.7852033176552062</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.8453264785814099</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.8972868091377102</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.8984794582462075</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.9147573923657032</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.9147573923657032</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.9201381761478417</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.9201381761478417</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.9260979715526746</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.9283862930234341</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.9592834097139293</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.9846325642477044</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.9846325642477044</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.9846325642477044</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.9846325642477044</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.9890482063012981</v>
+        <v>0</v>
       </c>
       <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0.1797952377679845</v>
+      </c>
+      <c r="BH2">
+        <v>0.291413500061759</v>
+      </c>
+      <c r="BI2">
+        <v>0.5535678660929095</v>
+      </c>
+      <c r="BJ2">
+        <v>0.5568320189049324</v>
+      </c>
+      <c r="BK2">
+        <v>0.5968600395924815</v>
+      </c>
+      <c r="BL2">
+        <v>0.6072860622681392</v>
+      </c>
+      <c r="BM2">
+        <v>0.6087437120411879</v>
+      </c>
+      <c r="BN2">
+        <v>0.6089595075497661</v>
+      </c>
+      <c r="BO2">
+        <v>0.621338304811533</v>
+      </c>
+      <c r="BP2">
+        <v>0.6230344323031139</v>
+      </c>
+      <c r="BQ2">
+        <v>0.7097404810132643</v>
+      </c>
+      <c r="BR2">
+        <v>0.7381224871945881</v>
+      </c>
+      <c r="BS2">
+        <v>0.7407218887701648</v>
+      </c>
+      <c r="BT2">
+        <v>0.764466626875936</v>
+      </c>
+      <c r="BU2">
+        <v>0.7733943232199998</v>
+      </c>
+      <c r="BV2">
+        <v>0.8324929124960483</v>
+      </c>
+      <c r="BW2">
+        <v>0.8837980565981713</v>
+      </c>
+      <c r="BX2">
+        <v>0.8866328633244789</v>
+      </c>
+      <c r="BY2">
+        <v>0.9038703142732768</v>
+      </c>
+      <c r="BZ2">
+        <v>0.9044720694673933</v>
+      </c>
+      <c r="CA2">
+        <v>0.9113054889886432</v>
+      </c>
+      <c r="CB2">
+        <v>0.9115548442910683</v>
+      </c>
+      <c r="CC2">
+        <v>0.9189410739445943</v>
+      </c>
+      <c r="CD2">
+        <v>0.9228219715605719</v>
+      </c>
+      <c r="CE2">
+        <v>0.9540170564049325</v>
+      </c>
+      <c r="CF2">
+        <v>0.9799152360171531</v>
+      </c>
+      <c r="CG2">
+        <v>0.9801596539069473</v>
+      </c>
+      <c r="CH2">
+        <v>0.9806958501913341</v>
+      </c>
+      <c r="CI2">
+        <v>0.981041060610466</v>
+      </c>
+      <c r="CJ2">
+        <v>0.9869530130907966</v>
+      </c>
+      <c r="CK2">
+        <v>0.9991053426445536</v>
+      </c>
+      <c r="CL2">
         <v>1</v>
       </c>
-      <c r="AI2">
+      <c r="CM2">
         <v>1</v>
       </c>
-      <c r="AJ2">
+    </row>
+    <row r="3" spans="1:91">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0.2023082614374573</v>
+      </c>
+      <c r="BI3">
+        <v>0.3101870960950306</v>
+      </c>
+      <c r="BJ3">
+        <v>0.6043498705745032</v>
+      </c>
+      <c r="BK3">
+        <v>0.6062947107312736</v>
+      </c>
+      <c r="BL3">
+        <v>0.6687619461005229</v>
+      </c>
+      <c r="BM3">
+        <v>0.6747716115124509</v>
+      </c>
+      <c r="BN3">
+        <v>0.6763730257772711</v>
+      </c>
+      <c r="BO3">
+        <v>0.6764031299485619</v>
+      </c>
+      <c r="BP3">
+        <v>0.6817190615921822</v>
+      </c>
+      <c r="BQ3">
+        <v>0.681924877446087</v>
+      </c>
+      <c r="BR3">
+        <v>0.7290893964458628</v>
+      </c>
+      <c r="BS3">
+        <v>0.7483713359110372</v>
+      </c>
+      <c r="BT3">
+        <v>0.7495498761584649</v>
+      </c>
+      <c r="BU3">
+        <v>0.7609864407946245</v>
+      </c>
+      <c r="BV3">
+        <v>0.7625003054013473</v>
+      </c>
+      <c r="BW3">
+        <v>0.8290485047013848</v>
+      </c>
+      <c r="BX3">
+        <v>0.8792551301919083</v>
+      </c>
+      <c r="BY3">
+        <v>0.8831752715793534</v>
+      </c>
+      <c r="BZ3">
+        <v>0.8997289252019227</v>
+      </c>
+      <c r="CA3">
+        <v>0.9013343106777575</v>
+      </c>
+      <c r="CB3">
+        <v>0.9093603596069074</v>
+      </c>
+      <c r="CC3">
+        <v>0.9098912264916668</v>
+      </c>
+      <c r="CD3">
+        <v>0.9231675456562589</v>
+      </c>
+      <c r="CE3">
+        <v>0.9263648691895762</v>
+      </c>
+      <c r="CF3">
+        <v>0.9542462213360683</v>
+      </c>
+      <c r="CG3">
+        <v>0.9634561592258338</v>
+      </c>
+      <c r="CH3">
+        <v>0.9661343734170837</v>
+      </c>
+      <c r="CI3">
+        <v>0.9663840398896464</v>
+      </c>
+      <c r="CJ3">
+        <v>0.9663872826063618</v>
+      </c>
+      <c r="CK3">
+        <v>0.974769298506448</v>
+      </c>
+      <c r="CL3">
+        <v>0.9961190861935729</v>
+      </c>
+      <c r="CM3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.2098889553416745</v>
-      </c>
-      <c r="F3">
-        <v>0.3210284458816068</v>
-      </c>
-      <c r="G3">
-        <v>0.6269741529355128</v>
-      </c>
-      <c r="H3">
-        <v>0.6273332901683185</v>
-      </c>
-      <c r="I3">
-        <v>0.6909836528120675</v>
-      </c>
-      <c r="J3">
-        <v>0.6955935763955633</v>
-      </c>
-      <c r="K3">
-        <v>0.6955935763955633</v>
-      </c>
-      <c r="L3">
-        <v>0.6955935763955633</v>
-      </c>
-      <c r="M3">
-        <v>0.6994780286861434</v>
-      </c>
-      <c r="N3">
-        <v>0.6994780286861434</v>
-      </c>
-      <c r="O3">
-        <v>0.7471255932294567</v>
-      </c>
-      <c r="P3">
-        <v>0.7656149821888805</v>
-      </c>
-      <c r="Q3">
-        <v>0.7656149821888805</v>
-      </c>
-      <c r="R3">
-        <v>0.775900079414752</v>
-      </c>
-      <c r="S3">
-        <v>0.775900079414752</v>
-      </c>
-      <c r="T3">
-        <v>0.8438181054107307</v>
-      </c>
-      <c r="U3">
-        <v>0.8946469493292909</v>
-      </c>
-      <c r="V3">
-        <v>0.8970717555596013</v>
-      </c>
-      <c r="W3">
-        <v>0.9127080427268112</v>
-      </c>
-      <c r="X3">
-        <v>0.9127121956161771</v>
-      </c>
-      <c r="Y3">
-        <v>0.9194307499512377</v>
-      </c>
-      <c r="Z3">
-        <v>0.9194307499512377</v>
-      </c>
-      <c r="AA3">
-        <v>0.9316397683661343</v>
-      </c>
-      <c r="AB3">
-        <v>0.9333086886541244</v>
-      </c>
-      <c r="AC3">
-        <v>0.9607909035667217</v>
-      </c>
-      <c r="AD3">
-        <v>0.968747508425143</v>
-      </c>
-      <c r="AE3">
-        <v>0.96987357071377</v>
-      </c>
-      <c r="AF3">
-        <v>0.96987357071377</v>
-      </c>
-      <c r="AG3">
-        <v>0.96987357071377</v>
-      </c>
-      <c r="AH3">
-        <v>0.976964377100609</v>
-      </c>
-      <c r="AI3">
-        <v>0.9976162159675689</v>
-      </c>
-      <c r="AJ3">
+    <row r="4" spans="1:91">
+      <c r="A4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0.09898415696161875</v>
+      </c>
+      <c r="BH4">
+        <v>0.1276553548960567</v>
+      </c>
+      <c r="BI4">
+        <v>0.3791312031819688</v>
+      </c>
+      <c r="BJ4">
+        <v>0.5369377804604396</v>
+      </c>
+      <c r="BK4">
+        <v>0.5703634554059844</v>
+      </c>
+      <c r="BL4">
+        <v>0.6080763856802686</v>
+      </c>
+      <c r="BM4">
+        <v>0.6229467969620103</v>
+      </c>
+      <c r="BN4">
+        <v>0.623224888446607</v>
+      </c>
+      <c r="BO4">
+        <v>0.6238920473591625</v>
+      </c>
+      <c r="BP4">
+        <v>0.6282694180284519</v>
+      </c>
+      <c r="BQ4">
+        <v>0.64347106332215</v>
+      </c>
+      <c r="BR4">
+        <v>0.7061111494822255</v>
+      </c>
+      <c r="BS4">
+        <v>0.7163747277799128</v>
+      </c>
+      <c r="BT4">
+        <v>0.7198840028229241</v>
+      </c>
+      <c r="BU4">
+        <v>0.7271046040461339</v>
+      </c>
+      <c r="BV4">
+        <v>0.736229211661018</v>
+      </c>
+      <c r="BW4">
+        <v>0.8325103251394883</v>
+      </c>
+      <c r="BX4">
+        <v>0.846870029695787</v>
+      </c>
+      <c r="BY4">
+        <v>0.8668712349725349</v>
+      </c>
+      <c r="BZ4">
+        <v>0.8683053409523144</v>
+      </c>
+      <c r="CA4">
+        <v>0.8842194947451455</v>
+      </c>
+      <c r="CB4">
+        <v>0.8873089140458762</v>
+      </c>
+      <c r="CC4">
+        <v>0.8923370920527398</v>
+      </c>
+      <c r="CD4">
+        <v>0.9028121791699038</v>
+      </c>
+      <c r="CE4">
+        <v>0.9191330471269364</v>
+      </c>
+      <c r="CF4">
+        <v>0.9657032429924829</v>
+      </c>
+      <c r="CG4">
+        <v>0.9657510103360899</v>
+      </c>
+      <c r="CH4">
+        <v>0.9680020760535393</v>
+      </c>
+      <c r="CI4">
+        <v>0.9687499889736482</v>
+      </c>
+      <c r="CJ4">
+        <v>0.96885114232243</v>
+      </c>
+      <c r="CK4">
+        <v>0.9801825903687723</v>
+      </c>
+      <c r="CL4">
         <v>1</v>
       </c>
+      <c r="CM4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.1066358996520016</v>
-      </c>
-      <c r="E4">
-        <v>0.1340186512276091</v>
-      </c>
-      <c r="F4">
-        <v>0.4125353358750501</v>
-      </c>
-      <c r="G4">
-        <v>0.5854728398412897</v>
-      </c>
-      <c r="H4">
-        <v>0.6182145931685004</v>
-      </c>
-      <c r="I4">
-        <v>0.6557887200170492</v>
-      </c>
-      <c r="J4">
-        <v>0.6676159352692025</v>
-      </c>
-      <c r="K4">
-        <v>0.6676159352692025</v>
-      </c>
-      <c r="L4">
-        <v>0.6676159352692025</v>
-      </c>
-      <c r="M4">
-        <v>0.6676159352692025</v>
-      </c>
-      <c r="N4">
-        <v>0.6798165004494588</v>
-      </c>
-      <c r="O4">
-        <v>0.745487234294398</v>
-      </c>
-      <c r="P4">
-        <v>0.7521218645423084</v>
-      </c>
-      <c r="Q4">
-        <v>0.7521218645423084</v>
-      </c>
-      <c r="R4">
-        <v>0.7553266076682245</v>
-      </c>
-      <c r="S4">
-        <v>0.7606774487906626</v>
-      </c>
-      <c r="T4">
-        <v>0.8642666169668336</v>
-      </c>
-      <c r="U4">
-        <v>0.8755181898865472</v>
-      </c>
-      <c r="V4">
-        <v>0.8931285720237481</v>
-      </c>
-      <c r="W4">
-        <v>0.8931285720237481</v>
-      </c>
-      <c r="X4">
-        <v>0.9061322401080601</v>
-      </c>
-      <c r="Y4">
-        <v>0.9061322401080601</v>
-      </c>
-      <c r="Z4">
-        <v>0.9068657966388561</v>
-      </c>
-      <c r="AA4">
-        <v>0.9137388287407259</v>
-      </c>
-      <c r="AB4">
-        <v>0.9272009240954331</v>
-      </c>
-      <c r="AC4">
-        <v>0.9747585047932916</v>
-      </c>
-      <c r="AD4">
-        <v>0.9747585047932916</v>
-      </c>
-      <c r="AE4">
-        <v>0.9747585047932916</v>
-      </c>
-      <c r="AF4">
-        <v>0.9747585047932916</v>
-      </c>
-      <c r="AG4">
-        <v>0.9747585047932916</v>
-      </c>
-      <c r="AH4">
-        <v>0.9825967828536023</v>
-      </c>
-      <c r="AI4">
+    <row r="5" spans="1:91">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0.1881348307829922</v>
+      </c>
+      <c r="BH5">
+        <v>0.2961645736296195</v>
+      </c>
+      <c r="BI5">
+        <v>0.5786954011348868</v>
+      </c>
+      <c r="BJ5">
+        <v>0.5835085816698297</v>
+      </c>
+      <c r="BK5">
+        <v>0.6355759912577983</v>
+      </c>
+      <c r="BL5">
+        <v>0.6440028967940559</v>
+      </c>
+      <c r="BM5">
+        <v>0.6440406313417142</v>
+      </c>
+      <c r="BN5">
+        <v>0.6445182900138954</v>
+      </c>
+      <c r="BO5">
+        <v>0.6502802647695877</v>
+      </c>
+      <c r="BP5">
+        <v>0.6509684274917755</v>
+      </c>
+      <c r="BQ5">
+        <v>0.7163110279665462</v>
+      </c>
+      <c r="BR5">
+        <v>0.7468595948522435</v>
+      </c>
+      <c r="BS5">
+        <v>0.7508191695649177</v>
+      </c>
+      <c r="BT5">
+        <v>0.7733974289158132</v>
+      </c>
+      <c r="BU5">
+        <v>0.7832573518970998</v>
+      </c>
+      <c r="BV5">
+        <v>0.8362430101166483</v>
+      </c>
+      <c r="BW5">
+        <v>0.8876997465292045</v>
+      </c>
+      <c r="BX5">
+        <v>0.8906786706229645</v>
+      </c>
+      <c r="BY5">
+        <v>0.9121114065418953</v>
+      </c>
+      <c r="BZ5">
+        <v>0.9123559424390378</v>
+      </c>
+      <c r="CA5">
+        <v>0.9190119120924087</v>
+      </c>
+      <c r="CB5">
+        <v>0.9190503053446106</v>
+      </c>
+      <c r="CC5">
+        <v>0.9299393926917714</v>
+      </c>
+      <c r="CD5">
+        <v>0.9340208208728126</v>
+      </c>
+      <c r="CE5">
+        <v>0.962989141514161</v>
+      </c>
+      <c r="CF5">
+        <v>0.9833040422945987</v>
+      </c>
+      <c r="CG5">
+        <v>0.9833130016345903</v>
+      </c>
+      <c r="CH5">
+        <v>0.9833445785153649</v>
+      </c>
+      <c r="CI5">
+        <v>0.9838977979027463</v>
+      </c>
+      <c r="CJ5">
+        <v>0.9883606197331573</v>
+      </c>
+      <c r="CK5">
+        <v>0.9993800763419737</v>
+      </c>
+      <c r="CL5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CM5">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:91">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0.002774689550745921</v>
+      </c>
+      <c r="BG6">
+        <v>0.231542522385879</v>
+      </c>
+      <c r="BH6">
+        <v>0.2936748862613611</v>
+      </c>
+      <c r="BI6">
+        <v>0.4961713424393132</v>
+      </c>
+      <c r="BJ6">
+        <v>0.5024421869878223</v>
+      </c>
+      <c r="BK6">
+        <v>0.5394554681361493</v>
+      </c>
+      <c r="BL6">
+        <v>0.553820920130388</v>
+      </c>
+      <c r="BM6">
+        <v>0.5548057072839879</v>
+      </c>
+      <c r="BN6">
+        <v>0.556369461319843</v>
+      </c>
+      <c r="BO6">
+        <v>0.568197435177488</v>
+      </c>
+      <c r="BP6">
+        <v>0.5701979153141099</v>
+      </c>
+      <c r="BQ6">
+        <v>0.6361851511345982</v>
+      </c>
+      <c r="BR6">
+        <v>0.6706363966848256</v>
+      </c>
+      <c r="BS6">
+        <v>0.6709506080842116</v>
+      </c>
+      <c r="BT6">
+        <v>0.6787280744566603</v>
+      </c>
+      <c r="BU6">
+        <v>0.6864957713416104</v>
+      </c>
+      <c r="BV6">
+        <v>0.7706949912127755</v>
+      </c>
+      <c r="BW6">
+        <v>0.8710704416757901</v>
+      </c>
+      <c r="BX6">
+        <v>0.8711228012264529</v>
+      </c>
+      <c r="BY6">
+        <v>0.8798701562133208</v>
+      </c>
+      <c r="BZ6">
+        <v>0.8836837796003987</v>
+      </c>
+      <c r="CA6">
+        <v>0.8991130194847315</v>
+      </c>
+      <c r="CB6">
+        <v>0.8991223962086209</v>
+      </c>
+      <c r="CC6">
+        <v>0.9075853698890498</v>
+      </c>
+      <c r="CD6">
+        <v>0.910764915415736</v>
+      </c>
+      <c r="CE6">
+        <v>0.9329711239556859</v>
+      </c>
+      <c r="CF6">
+        <v>0.9469802192086644</v>
+      </c>
+      <c r="CG6">
+        <v>0.9492862642920958</v>
+      </c>
+      <c r="CH6">
+        <v>0.9515446669030304</v>
+      </c>
+      <c r="CI6">
+        <v>0.9525668952243252</v>
+      </c>
+      <c r="CJ6">
+        <v>0.9666302085119665</v>
+      </c>
+      <c r="CK6">
         <v>1</v>
       </c>
-      <c r="AJ4">
+      <c r="CL6">
         <v>1</v>
       </c>
+      <c r="CM6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.1909852245331925</v>
-      </c>
-      <c r="E5">
-        <v>0.3003531636590226</v>
-      </c>
-      <c r="F5">
-        <v>0.5875163614554699</v>
-      </c>
-      <c r="G5">
-        <v>0.5917192499961019</v>
-      </c>
-      <c r="H5">
-        <v>0.6440684173647341</v>
-      </c>
-      <c r="I5">
-        <v>0.6519532496172354</v>
-      </c>
-      <c r="J5">
-        <v>0.6519532496172354</v>
-      </c>
-      <c r="K5">
-        <v>0.6519532496172354</v>
-      </c>
-      <c r="L5">
-        <v>0.6571228434034729</v>
-      </c>
-      <c r="M5">
-        <v>0.6571228434034729</v>
-      </c>
-      <c r="N5">
-        <v>0.7229978063408716</v>
-      </c>
-      <c r="O5">
-        <v>0.7534219053809772</v>
-      </c>
-      <c r="P5">
-        <v>0.7567550740097252</v>
-      </c>
-      <c r="Q5">
-        <v>0.7790584046740551</v>
-      </c>
-      <c r="R5">
-        <v>0.7884033064030118</v>
-      </c>
-      <c r="S5">
-        <v>0.8416880567985061</v>
-      </c>
-      <c r="T5">
-        <v>0.8934150229046185</v>
-      </c>
-      <c r="U5">
-        <v>0.8957490285150023</v>
-      </c>
-      <c r="V5">
-        <v>0.9168852109332464</v>
-      </c>
-      <c r="W5">
-        <v>0.9168852109332464</v>
-      </c>
-      <c r="X5">
-        <v>0.9229656761584432</v>
-      </c>
-      <c r="Y5">
-        <v>0.9229656761584432</v>
-      </c>
-      <c r="Z5">
-        <v>0.9333591704792632</v>
-      </c>
-      <c r="AA5">
-        <v>0.936816492886027</v>
-      </c>
-      <c r="AB5">
-        <v>0.9656305143135672</v>
-      </c>
-      <c r="AC5">
-        <v>0.9856277594696831</v>
-      </c>
-      <c r="AD5">
-        <v>0.9856277594696831</v>
-      </c>
-      <c r="AE5">
-        <v>0.9856277594696831</v>
-      </c>
-      <c r="AF5">
-        <v>0.9856277594696831</v>
-      </c>
-      <c r="AG5">
-        <v>0.9894736753495341</v>
-      </c>
-      <c r="AH5">
+    <row r="7" spans="1:91">
+      <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.07217904111970772</v>
+      </c>
+      <c r="E7">
+        <v>0.124249342689907</v>
+      </c>
+      <c r="F7">
+        <v>0.167638608280601</v>
+      </c>
+      <c r="G7">
+        <v>0.1982256767765387</v>
+      </c>
+      <c r="H7">
+        <v>0.2126769469044203</v>
+      </c>
+      <c r="I7">
+        <v>0.2164445596029347</v>
+      </c>
+      <c r="J7">
+        <v>0.2182293445619976</v>
+      </c>
+      <c r="K7">
+        <v>0.2182293445619976</v>
+      </c>
+      <c r="L7">
+        <v>0.2182293445619976</v>
+      </c>
+      <c r="M7">
+        <v>0.2182293445619976</v>
+      </c>
+      <c r="N7">
+        <v>0.2263445604388341</v>
+      </c>
+      <c r="O7">
+        <v>0.240897847202223</v>
+      </c>
+      <c r="P7">
+        <v>0.2697378541928015</v>
+      </c>
+      <c r="Q7">
+        <v>0.317060342397146</v>
+      </c>
+      <c r="R7">
+        <v>0.3882062108495827</v>
+      </c>
+      <c r="S7">
+        <v>0.4702115370921289</v>
+      </c>
+      <c r="T7">
+        <v>0.5453583639482795</v>
+      </c>
+      <c r="U7">
+        <v>0.6173908943803831</v>
+      </c>
+      <c r="V7">
+        <v>0.6754904237098811</v>
+      </c>
+      <c r="W7">
+        <v>0.7238390541278243</v>
+      </c>
+      <c r="X7">
+        <v>0.7547265077393928</v>
+      </c>
+      <c r="Y7">
+        <v>0.7788665450835336</v>
+      </c>
+      <c r="Z7">
+        <v>0.7919741222597338</v>
+      </c>
+      <c r="AA7">
+        <v>0.7922446914885118</v>
+      </c>
+      <c r="AB7">
+        <v>0.7922446914885118</v>
+      </c>
+      <c r="AC7">
+        <v>0.7922446914885118</v>
+      </c>
+      <c r="AD7">
+        <v>0.7962895678730781</v>
+      </c>
+      <c r="AE7">
+        <v>0.8132471435227573</v>
+      </c>
+      <c r="AF7">
+        <v>0.8488209811457437</v>
+      </c>
+      <c r="AG7">
+        <v>0.8952465665253551</v>
+      </c>
+      <c r="AH7">
+        <v>0.9471644449551972</v>
+      </c>
+      <c r="AI7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AJ7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AK7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AL7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AM7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AN7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AO7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AP7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AQ7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AR7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AS7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AT7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AU7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AV7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AW7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AX7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AY7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AZ7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BA7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BB7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BC7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BD7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BE7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BF7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BG7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BH7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BI7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BJ7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BK7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BL7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BM7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BN7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BO7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BP7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BQ7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BR7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BS7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BT7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BU7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BV7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BW7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BX7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BY7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BZ7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CA7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CB7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CC7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CD7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CE7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CF7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CG7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CH7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CI7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CJ7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CK7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CL7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="CM7">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:91">
+      <c r="A8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0.01798400992209666</v>
+      </c>
+      <c r="BH8">
+        <v>0.1073885411468149</v>
+      </c>
+      <c r="BI8">
+        <v>0.2376790758874635</v>
+      </c>
+      <c r="BJ8">
+        <v>0.4761820609808298</v>
+      </c>
+      <c r="BK8">
+        <v>0.476759684600125</v>
+      </c>
+      <c r="BL8">
+        <v>0.5422209316761872</v>
+      </c>
+      <c r="BM8">
+        <v>0.5862290521679167</v>
+      </c>
+      <c r="BN8">
+        <v>0.5918115461548246</v>
+      </c>
+      <c r="BO8">
+        <v>0.6018741716918765</v>
+      </c>
+      <c r="BP8">
+        <v>0.6020728131944435</v>
+      </c>
+      <c r="BQ8">
+        <v>0.606247430156388</v>
+      </c>
+      <c r="BR8">
+        <v>0.6759092990233937</v>
+      </c>
+      <c r="BS8">
+        <v>0.6908472894450287</v>
+      </c>
+      <c r="BT8">
+        <v>0.6993067826893221</v>
+      </c>
+      <c r="BU8">
+        <v>0.7396759946699731</v>
+      </c>
+      <c r="BV8">
+        <v>0.7452389407392452</v>
+      </c>
+      <c r="BW8">
+        <v>0.819127090146718</v>
+      </c>
+      <c r="BX8">
+        <v>0.8627497835559564</v>
+      </c>
+      <c r="BY8">
+        <v>0.8653426951457087</v>
+      </c>
+      <c r="BZ8">
+        <v>0.8743017439671449</v>
+      </c>
+      <c r="CA8">
+        <v>0.8744946602692389</v>
+      </c>
+      <c r="CB8">
+        <v>0.8820918959297215</v>
+      </c>
+      <c r="CC8">
+        <v>0.8859376722324857</v>
+      </c>
+      <c r="CD8">
+        <v>0.8996196213544815</v>
+      </c>
+      <c r="CE8">
+        <v>0.9135701064298937</v>
+      </c>
+      <c r="CF8">
+        <v>0.9510647668581174</v>
+      </c>
+      <c r="CG8">
+        <v>0.9889964719367886</v>
+      </c>
+      <c r="CH8">
+        <v>0.9898547625524657</v>
+      </c>
+      <c r="CI8">
+        <v>0.9900150856911601</v>
+      </c>
+      <c r="CJ8">
+        <v>0.9900151454654584</v>
+      </c>
+      <c r="CK8">
+        <v>0.9934783023304907</v>
+      </c>
+      <c r="CL8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CM8">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:91">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0.1895557938464816</v>
+      </c>
+      <c r="BH9">
+        <v>0.1902748454817929</v>
+      </c>
+      <c r="BI9">
+        <v>0.4325551497499693</v>
+      </c>
+      <c r="BJ9">
+        <v>0.5098325922300821</v>
+      </c>
+      <c r="BK9">
+        <v>0.5963414119863418</v>
+      </c>
+      <c r="BL9">
+        <v>0.6019393315526648</v>
+      </c>
+      <c r="BM9">
+        <v>0.6403682477305731</v>
+      </c>
+      <c r="BN9">
+        <v>0.6405912960846408</v>
+      </c>
+      <c r="BO9">
+        <v>0.6518817681688758</v>
+      </c>
+      <c r="BP9">
+        <v>0.6522071798165924</v>
+      </c>
+      <c r="BQ9">
+        <v>0.6760502968847975</v>
+      </c>
+      <c r="BR9">
+        <v>0.7009047088206927</v>
+      </c>
+      <c r="BS9">
+        <v>0.70239440524999</v>
+      </c>
+      <c r="BT9">
+        <v>0.7128203227376482</v>
+      </c>
+      <c r="BU9">
+        <v>0.7258220502421356</v>
+      </c>
+      <c r="BV9">
+        <v>0.7578619001632544</v>
+      </c>
+      <c r="BW9">
+        <v>0.8597847356794288</v>
+      </c>
+      <c r="BX9">
+        <v>0.8683099252754973</v>
+      </c>
+      <c r="BY9">
+        <v>0.8745698884383347</v>
+      </c>
+      <c r="BZ9">
+        <v>0.8753135106007658</v>
+      </c>
+      <c r="CA9">
+        <v>0.8815243740497357</v>
+      </c>
+      <c r="CB9">
+        <v>0.89178233972461</v>
+      </c>
+      <c r="CC9">
+        <v>0.8918056409913361</v>
+      </c>
+      <c r="CD9">
+        <v>0.9176047125167089</v>
+      </c>
+      <c r="CE9">
+        <v>0.9199886322119808</v>
+      </c>
+      <c r="CF9">
+        <v>0.9663667270194548</v>
+      </c>
+      <c r="CG9">
+        <v>0.9724824835465288</v>
+      </c>
+      <c r="CH9">
+        <v>0.9733127329076469</v>
+      </c>
+      <c r="CI9">
+        <v>0.9742856448175663</v>
+      </c>
+      <c r="CJ9">
+        <v>0.9789619291889429</v>
+      </c>
+      <c r="CK9">
+        <v>0.9914677326701834</v>
+      </c>
+      <c r="CL9">
         <v>1</v>
       </c>
-      <c r="AI5">
+      <c r="CM9">
         <v>1</v>
       </c>
-      <c r="AJ5">
+    </row>
+    <row r="10" spans="1:91">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0.07251624787907643</v>
+      </c>
+      <c r="U10">
+        <v>0.1344924946711689</v>
+      </c>
+      <c r="V10">
+        <v>0.1734753203042789</v>
+      </c>
+      <c r="W10">
+        <v>0.2239323003605063</v>
+      </c>
+      <c r="X10">
+        <v>0.2792292742851765</v>
+      </c>
+      <c r="Y10">
+        <v>0.3294111469395188</v>
+      </c>
+      <c r="Z10">
+        <v>0.366835917333693</v>
+      </c>
+      <c r="AA10">
+        <v>0.3727093640658618</v>
+      </c>
+      <c r="AB10">
+        <v>0.3727220681612737</v>
+      </c>
+      <c r="AC10">
+        <v>0.3730378517523657</v>
+      </c>
+      <c r="AD10">
+        <v>0.3731363837604358</v>
+      </c>
+      <c r="AE10">
+        <v>0.3800254605842248</v>
+      </c>
+      <c r="AF10">
+        <v>0.4120183471674308</v>
+      </c>
+      <c r="AG10">
+        <v>0.4452291112597948</v>
+      </c>
+      <c r="AH10">
+        <v>0.4573475727671849</v>
+      </c>
+      <c r="AI10">
+        <v>0.4938000595998973</v>
+      </c>
+      <c r="AJ10">
+        <v>0.5684370009272615</v>
+      </c>
+      <c r="AK10">
+        <v>0.6354078143055953</v>
+      </c>
+      <c r="AL10">
+        <v>0.6891892185594589</v>
+      </c>
+      <c r="AM10">
+        <v>0.747815355309988</v>
+      </c>
+      <c r="AN10">
+        <v>0.798928735486919</v>
+      </c>
+      <c r="AO10">
+        <v>0.8285541147395714</v>
+      </c>
+      <c r="AP10">
+        <v>0.8420840343465861</v>
+      </c>
+      <c r="AQ10">
+        <v>0.8613501764005314</v>
+      </c>
+      <c r="AR10">
+        <v>0.86907766577126</v>
+      </c>
+      <c r="AS10">
+        <v>0.8691129549220037</v>
+      </c>
+      <c r="AT10">
+        <v>0.8697914860096936</v>
+      </c>
+      <c r="AU10">
+        <v>0.8714119228578927</v>
+      </c>
+      <c r="AV10">
+        <v>0.877912196666181</v>
+      </c>
+      <c r="AW10">
+        <v>0.9034579888631807</v>
+      </c>
+      <c r="AX10">
+        <v>0.9535025938504772</v>
+      </c>
+      <c r="AY10">
         <v>1</v>
       </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
+        <v>1</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>1</v>
+      </c>
+      <c r="BF10">
+        <v>1</v>
+      </c>
+      <c r="BG10">
+        <v>1</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
+        <v>1</v>
+      </c>
+      <c r="BJ10">
+        <v>1</v>
+      </c>
+      <c r="BK10">
+        <v>1</v>
+      </c>
+      <c r="BL10">
+        <v>1</v>
+      </c>
+      <c r="BM10">
+        <v>1</v>
+      </c>
+      <c r="BN10">
+        <v>1</v>
+      </c>
+      <c r="BO10">
+        <v>1</v>
+      </c>
+      <c r="BP10">
+        <v>1</v>
+      </c>
+      <c r="BQ10">
+        <v>1</v>
+      </c>
+      <c r="BR10">
+        <v>1</v>
+      </c>
+      <c r="BS10">
+        <v>1</v>
+      </c>
+      <c r="BT10">
+        <v>1</v>
+      </c>
+      <c r="BU10">
+        <v>1</v>
+      </c>
+      <c r="BV10">
+        <v>1</v>
+      </c>
+      <c r="BW10">
+        <v>1</v>
+      </c>
+      <c r="BX10">
+        <v>1</v>
+      </c>
+      <c r="BY10">
+        <v>1</v>
+      </c>
+      <c r="BZ10">
+        <v>1</v>
+      </c>
+      <c r="CA10">
+        <v>1</v>
+      </c>
+      <c r="CB10">
+        <v>1</v>
+      </c>
+      <c r="CC10">
+        <v>1</v>
+      </c>
+      <c r="CD10">
+        <v>1</v>
+      </c>
+      <c r="CE10">
+        <v>1</v>
+      </c>
+      <c r="CF10">
+        <v>1</v>
+      </c>
+      <c r="CG10">
+        <v>1</v>
+      </c>
+      <c r="CH10">
+        <v>1</v>
+      </c>
+      <c r="CI10">
+        <v>1</v>
+      </c>
+      <c r="CJ10">
+        <v>1</v>
+      </c>
+      <c r="CK10">
+        <v>1</v>
+      </c>
+      <c r="CL10">
+        <v>1</v>
+      </c>
+      <c r="CM10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.2385473593708902</v>
-      </c>
-      <c r="E6">
-        <v>0.3018029466906987</v>
-      </c>
-      <c r="F6">
-        <v>0.5127141959512392</v>
-      </c>
-      <c r="G6">
-        <v>0.5172063952995355</v>
-      </c>
-      <c r="H6">
-        <v>0.5540380252768233</v>
-      </c>
-      <c r="I6">
-        <v>0.5670453270344595</v>
-      </c>
-      <c r="J6">
-        <v>0.5670453270344595</v>
-      </c>
-      <c r="K6">
-        <v>0.5670453270344595</v>
-      </c>
-      <c r="L6">
-        <v>0.5773833349023771</v>
-      </c>
-      <c r="M6">
-        <v>0.5773833349023771</v>
-      </c>
-      <c r="N6">
-        <v>0.6446940452910548</v>
-      </c>
-      <c r="O6">
-        <v>0.6788305482173449</v>
-      </c>
-      <c r="P6">
-        <v>0.6788305482173449</v>
-      </c>
-      <c r="Q6">
-        <v>0.6849076346906814</v>
-      </c>
-      <c r="R6">
-        <v>0.6909744441756532</v>
-      </c>
-      <c r="S6">
-        <v>0.7774432064289204</v>
-      </c>
-      <c r="T6">
-        <v>0.8809285146988031</v>
-      </c>
-      <c r="U6">
-        <v>0.8809285146988031</v>
-      </c>
-      <c r="V6">
-        <v>0.8880258731164931</v>
-      </c>
-      <c r="W6">
-        <v>0.8899332047028544</v>
-      </c>
-      <c r="X6">
-        <v>0.9040595555171248</v>
-      </c>
-      <c r="Y6">
-        <v>0.9040595555171248</v>
-      </c>
-      <c r="Z6">
-        <v>0.9108577597183978</v>
-      </c>
-      <c r="AA6">
-        <v>0.9120980746578211</v>
-      </c>
-      <c r="AB6">
-        <v>0.9333534409943834</v>
-      </c>
-      <c r="AC6">
-        <v>0.9459858741538283</v>
-      </c>
-      <c r="AD6">
-        <v>0.9463073124486724</v>
-      </c>
-      <c r="AE6">
-        <v>0.9465786333616589</v>
-      </c>
-      <c r="AF6">
-        <v>0.9465786333616589</v>
-      </c>
-      <c r="AG6">
-        <v>0.9592681010494218</v>
-      </c>
-      <c r="AH6">
-        <v>0.9922669710327537</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0.08351070364384887</v>
-      </c>
-      <c r="E7">
-        <v>0.08351070364384887</v>
-      </c>
-      <c r="F7">
-        <v>0.3826231076180983</v>
-      </c>
-      <c r="G7">
-        <v>0.6510659235718297</v>
-      </c>
-      <c r="H7">
-        <v>0.6510659235718297</v>
-      </c>
-      <c r="I7">
-        <v>0.6791364322525599</v>
-      </c>
-      <c r="J7">
-        <v>0.7244771778059672</v>
-      </c>
-      <c r="K7">
-        <v>0.7244771778059672</v>
-      </c>
-      <c r="L7">
-        <v>0.7244771778059672</v>
-      </c>
-      <c r="M7">
-        <v>0.7244771778059672</v>
-      </c>
-      <c r="N7">
-        <v>0.7244771778059672</v>
-      </c>
-      <c r="O7">
-        <v>0.797142183895357</v>
-      </c>
-      <c r="P7">
-        <v>0.797142183895357</v>
-      </c>
-      <c r="Q7">
-        <v>0.797142183895357</v>
-      </c>
-      <c r="R7">
-        <v>0.8210122372572837</v>
-      </c>
-      <c r="S7">
-        <v>0.8210122372572837</v>
-      </c>
-      <c r="T7">
-        <v>0.9450908651694643</v>
-      </c>
-      <c r="U7">
-        <v>0.9450908651694643</v>
-      </c>
-      <c r="V7">
-        <v>0.9450908651694643</v>
-      </c>
-      <c r="W7">
-        <v>0.9450908651694643</v>
-      </c>
-      <c r="X7">
-        <v>0.9450908651694643</v>
-      </c>
-      <c r="Y7">
-        <v>0.9450908651694643</v>
-      </c>
-      <c r="Z7">
-        <v>0.9450908651694643</v>
-      </c>
-      <c r="AA7">
-        <v>0.9450908651694643</v>
-      </c>
-      <c r="AB7">
-        <v>0.9450908651694643</v>
-      </c>
-      <c r="AC7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AD7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AE7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AF7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AG7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI7">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ7">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0.01440127122168712</v>
-      </c>
-      <c r="E8">
-        <v>0.1117396852449956</v>
-      </c>
-      <c r="F8">
-        <v>0.2565570065955154</v>
-      </c>
-      <c r="G8">
-        <v>0.5270361305221989</v>
-      </c>
-      <c r="H8">
-        <v>0.5270361305221989</v>
-      </c>
-      <c r="I8">
-        <v>0.5965703848956114</v>
-      </c>
-      <c r="J8">
-        <v>0.6411921772677034</v>
-      </c>
-      <c r="K8">
-        <v>0.6411921772677034</v>
-      </c>
-      <c r="L8">
-        <v>0.6463947339470357</v>
-      </c>
-      <c r="M8">
-        <v>0.6463947339470357</v>
-      </c>
-      <c r="N8">
-        <v>0.6463947339470357</v>
-      </c>
-      <c r="O8">
-        <v>0.7208069640475491</v>
-      </c>
-      <c r="P8">
-        <v>0.7316710424613613</v>
-      </c>
-      <c r="Q8">
-        <v>0.7350119603641991</v>
-      </c>
-      <c r="R8">
-        <v>0.775408067046508</v>
-      </c>
-      <c r="S8">
-        <v>0.775408067046508</v>
-      </c>
-      <c r="T8">
-        <v>0.8547280691194385</v>
-      </c>
-      <c r="U8">
-        <v>0.8989022839550306</v>
-      </c>
-      <c r="V8">
-        <v>0.8989022839550306</v>
-      </c>
-      <c r="W8">
-        <v>0.9028233112085589</v>
-      </c>
-      <c r="X8">
-        <v>0.9028233112085589</v>
-      </c>
-      <c r="Y8">
-        <v>0.9051629317383729</v>
-      </c>
-      <c r="Z8">
-        <v>0.9051629317383729</v>
-      </c>
-      <c r="AA8">
-        <v>0.9145684310948927</v>
-      </c>
-      <c r="AB8">
-        <v>0.9242857680620832</v>
-      </c>
-      <c r="AC8">
-        <v>0.9613437992410767</v>
-      </c>
-      <c r="AD8">
-        <v>0.9989093489024861</v>
-      </c>
-      <c r="AE8">
-        <v>0.9989093489024861</v>
-      </c>
-      <c r="AF8">
-        <v>0.9989093489024861</v>
-      </c>
-      <c r="AG8">
-        <v>0.9989093489024861</v>
-      </c>
-      <c r="AH8">
-        <v>0.9989093489024861</v>
-      </c>
-      <c r="AI8">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ8">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0.2367090083591989</v>
-      </c>
-      <c r="E9">
-        <v>0.2367090083591989</v>
-      </c>
-      <c r="F9">
-        <v>0.544106655256853</v>
-      </c>
-      <c r="G9">
-        <v>0.6302821881612453</v>
-      </c>
-      <c r="H9">
-        <v>0.7288343839548039</v>
-      </c>
-      <c r="I9">
-        <v>0.7288343839548039</v>
-      </c>
-      <c r="J9">
-        <v>0.762925043779024</v>
-      </c>
-      <c r="K9">
-        <v>0.762925043779024</v>
-      </c>
-      <c r="L9">
-        <v>0.762925043779024</v>
-      </c>
-      <c r="M9">
-        <v>0.762925043779024</v>
-      </c>
-      <c r="N9">
-        <v>0.7774602772405541</v>
-      </c>
-      <c r="O9">
-        <v>0.7933513707524894</v>
-      </c>
-      <c r="P9">
-        <v>0.7933513707524894</v>
-      </c>
-      <c r="Q9">
-        <v>0.7933513707524894</v>
-      </c>
-      <c r="R9">
-        <v>0.7933513707524894</v>
-      </c>
-      <c r="S9">
-        <v>0.8188761019106635</v>
-      </c>
-      <c r="T9">
-        <v>0.9380941280697199</v>
-      </c>
-      <c r="U9">
-        <v>0.9380941280697199</v>
-      </c>
-      <c r="V9">
-        <v>0.9380941280697199</v>
-      </c>
-      <c r="W9">
-        <v>0.9380941280697199</v>
-      </c>
-      <c r="X9">
-        <v>0.9380941280697199</v>
-      </c>
-      <c r="Y9">
-        <v>0.9380941280697199</v>
-      </c>
-      <c r="Z9">
-        <v>0.9380941280697199</v>
-      </c>
-      <c r="AA9">
-        <v>0.9552517425930099</v>
-      </c>
-      <c r="AB9">
-        <v>0.9552517425930099</v>
-      </c>
-      <c r="AC9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AD9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AE9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AF9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AG9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ9">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.2471495076159555</v>
-      </c>
-      <c r="F10">
-        <v>0.285375062059909</v>
-      </c>
-      <c r="G10">
-        <v>0.5310874878165723</v>
-      </c>
-      <c r="H10">
-        <v>0.5347019323310163</v>
-      </c>
-      <c r="I10">
-        <v>0.6027417845242469</v>
-      </c>
-      <c r="J10">
-        <v>0.6426114114516935</v>
-      </c>
-      <c r="K10">
-        <v>0.6426531270244901</v>
-      </c>
-      <c r="L10">
-        <v>0.6426531270244901</v>
-      </c>
-      <c r="M10">
-        <v>0.6426531270244901</v>
-      </c>
-      <c r="N10">
-        <v>0.6426531270244901</v>
-      </c>
-      <c r="O10">
-        <v>0.7002675012435273</v>
-      </c>
-      <c r="P10">
-        <v>0.7109640305035783</v>
-      </c>
-      <c r="Q10">
-        <v>0.7109640305035783</v>
-      </c>
-      <c r="R10">
-        <v>0.7109640305035783</v>
-      </c>
-      <c r="S10">
-        <v>0.7109640305035783</v>
-      </c>
-      <c r="T10">
-        <v>0.8063459625739624</v>
-      </c>
-      <c r="U10">
-        <v>0.9219179205884891</v>
-      </c>
-      <c r="V10">
-        <v>0.9219179205884891</v>
-      </c>
-      <c r="W10">
-        <v>0.9219179205884891</v>
-      </c>
-      <c r="X10">
-        <v>0.9219179205884891</v>
-      </c>
-      <c r="Y10">
-        <v>0.9219179205884891</v>
-      </c>
-      <c r="Z10">
-        <v>0.9219179205884891</v>
-      </c>
-      <c r="AA10">
-        <v>0.9219179205884891</v>
-      </c>
-      <c r="AB10">
-        <v>0.9484917092266554</v>
-      </c>
-      <c r="AC10">
-        <v>0.9484917092266554</v>
-      </c>
-      <c r="AD10">
-        <v>0.9773721239840818</v>
-      </c>
-      <c r="AE10">
-        <v>0.9773721239840818</v>
-      </c>
-      <c r="AF10">
-        <v>0.9773721239840818</v>
-      </c>
-      <c r="AG10">
-        <v>0.9773721239840818</v>
-      </c>
-      <c r="AH10">
-        <v>0.9773721239840818</v>
-      </c>
-      <c r="AI10">
-        <v>0.9977843261727684</v>
-      </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:91">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2905,99 +6535,264 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2406552107380849</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2585961810140179</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5010578565793574</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.5148425810057812</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6203240744819658</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6203240744819658</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6300985199378418</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6300985199378418</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6335418156425965</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6335418156425965</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6883331864094593</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7014855198421897</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.7019780838152698</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.7296110172753234</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.744636722547708</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.7963317306013273</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.876622029677828</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.876622029677828</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.8780684605061251</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.8780684605061251</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.8817997702048092</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.8953169328961411</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.8953169328961411</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.9151446056691943</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.927449286894629</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.9888122493977046</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.9941622595877575</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.9941622595877575</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.9941622595877575</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.9947779106375306</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0.2261239509768107</v>
+      </c>
+      <c r="BI11">
+        <v>0.2454192658222892</v>
+      </c>
+      <c r="BJ11">
+        <v>0.4732208313767083</v>
+      </c>
+      <c r="BK11">
+        <v>0.4886563541464906</v>
+      </c>
+      <c r="BL11">
+        <v>0.5892481634691967</v>
+      </c>
+      <c r="BM11">
+        <v>0.5918821889182543</v>
+      </c>
+      <c r="BN11">
+        <v>0.6035934750686656</v>
+      </c>
+      <c r="BO11">
+        <v>0.6055541831568063</v>
+      </c>
+      <c r="BP11">
+        <v>0.6113859033421029</v>
+      </c>
+      <c r="BQ11">
+        <v>0.6125275546833491</v>
+      </c>
+      <c r="BR11">
+        <v>0.6660448306329609</v>
+      </c>
+      <c r="BS11">
+        <v>0.6808930691480143</v>
+      </c>
+      <c r="BT11">
+        <v>0.6839845253143363</v>
+      </c>
+      <c r="BU11">
+        <v>0.7122805018267431</v>
+      </c>
+      <c r="BV11">
+        <v>0.7288684896355933</v>
+      </c>
+      <c r="BW11">
+        <v>0.7795102580486456</v>
+      </c>
+      <c r="BX11">
+        <v>0.8567076927260927</v>
+      </c>
+      <c r="BY11">
+        <v>0.858689073784435</v>
+      </c>
+      <c r="BZ11">
+        <v>0.8626663600633983</v>
+      </c>
+      <c r="CA11">
+        <v>0.863246329394833</v>
+      </c>
+      <c r="CB11">
+        <v>0.8693455203149489</v>
+      </c>
+      <c r="CC11">
+        <v>0.8845325658044498</v>
+      </c>
+      <c r="CD11">
+        <v>0.8848405324399112</v>
+      </c>
+      <c r="CE11">
+        <v>0.905887976396915</v>
+      </c>
+      <c r="CF11">
+        <v>0.9199490234437224</v>
+      </c>
+      <c r="CG11">
+        <v>0.9795691572671389</v>
+      </c>
+      <c r="CH11">
+        <v>0.9871715911511543</v>
+      </c>
+      <c r="CI11">
+        <v>0.9873322280673231</v>
+      </c>
+      <c r="CJ11">
+        <v>0.9873845304931632</v>
+      </c>
+      <c r="CK11">
+        <v>0.9905902942679478</v>
+      </c>
+      <c r="CL11">
+        <v>0.9980739315709859</v>
+      </c>
+      <c r="CM11">
         <v>1</v>
       </c>
     </row>
@@ -3016,63 +6811,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5744757146847514</v>
+        <v>0.5535678660929095</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3084,36 +6879,36 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6269741529355128</v>
+        <v>0.6043498705745032</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3125,36 +6920,36 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5854728398412897</v>
+        <v>0.5369377804604396</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -3166,36 +6961,36 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5875163614554699</v>
+        <v>0.5786954011348868</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3207,39 +7002,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D6">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.5024421869878223</v>
+      </c>
+      <c r="G6">
         <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5127141959512392</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -3248,21 +7043,21 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -3271,16 +7066,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6510659235718297</v>
+        <v>0.5453583639482795</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>17</v>
@@ -3289,39 +7084,39 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D8">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.5422209316761872</v>
+      </c>
+      <c r="G8">
         <v>6</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5270361305221989</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
       </c>
       <c r="H8">
         <v>17</v>
@@ -3330,39 +7125,39 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D9">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.5098325922300821</v>
+      </c>
+      <c r="G9">
         <v>5</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.544106655256853</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
       </c>
       <c r="H9">
         <v>17</v>
@@ -3371,39 +7166,39 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5310874878165723</v>
+        <v>0.5684370009272615</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>17</v>
@@ -3412,39 +7207,39 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D11">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.5892481634691967</v>
+      </c>
+      <c r="G11">
         <v>6</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5010578565793574</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
       </c>
       <c r="H11">
         <v>17</v>
@@ -3453,16 +7248,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3480,63 +7275,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7256385549644675</v>
+        <v>0.7097404810132643</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -3548,36 +7343,36 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7471255932294567</v>
+        <v>0.7290893964458628</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -3589,36 +7384,36 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.745487234294398</v>
+        <v>0.7061111494822255</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -3630,36 +7425,36 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7229978063408716</v>
+        <v>0.7163110279665462</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -3671,36 +7466,36 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7774432064289204</v>
+        <v>0.7706949912127755</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -3712,21 +7507,21 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>0.7</v>
@@ -3735,16 +7530,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7244771778059672</v>
+        <v>0.7238390541278243</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>17</v>
@@ -3753,39 +7548,39 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7208069640475491</v>
+        <v>0.7396759946699731</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>17</v>
@@ -3794,39 +7589,39 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7288343839548039</v>
+        <v>0.7009047088206927</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>17</v>
@@ -3835,39 +7630,39 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7002675012435273</v>
+        <v>0.747815355309988</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>17</v>
@@ -3876,39 +7671,39 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D11">
+        <v>72</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.7122805018267431</v>
+      </c>
+      <c r="G11">
         <v>15</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7014855198421897</v>
-      </c>
-      <c r="G11">
-        <v>13</v>
       </c>
       <c r="H11">
         <v>17</v>
@@ -3917,16 +7712,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3944,63 +7739,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8453264785814099</v>
+        <v>0.8324929124960483</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -4012,36 +7807,36 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8438181054107307</v>
+        <v>0.8290485047013848</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -4053,36 +7848,36 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8642666169668336</v>
+        <v>0.8325103251394883</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -4094,36 +7889,36 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8416880567985061</v>
+        <v>0.8362430101166483</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -4135,36 +7930,36 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8809285146988031</v>
+        <v>0.8710704416757901</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -4176,21 +7971,21 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -4199,16 +7994,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8210122372572837</v>
+        <v>0.8132471435227573</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>17</v>
@@ -4217,36 +8012,36 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8547280691194385</v>
+        <v>0.819127090146718</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -4258,39 +8053,39 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D9">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.8597847356794288</v>
+      </c>
+      <c r="G9">
         <v>18</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8188761019106635</v>
-      </c>
-      <c r="G9">
-        <v>17</v>
       </c>
       <c r="H9">
         <v>17</v>
@@ -4299,39 +8094,39 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8063459625739624</v>
+        <v>0.8285541147395714</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H10">
         <v>17</v>
@@ -4340,36 +8135,36 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.876622029677828</v>
+        <v>0.8567076927260927</v>
       </c>
       <c r="G11">
         <v>18</v>
@@ -4381,16 +8176,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4408,63 +8203,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9147573923657032</v>
+        <v>0.9038703142732768</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -4476,39 +8271,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9127080427268112</v>
+        <v>0.9013343106777575</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>17</v>
@@ -4517,39 +8312,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9061322401080601</v>
+        <v>0.9028121791699038</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>17</v>
@@ -4558,36 +8353,36 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9168852109332464</v>
+        <v>0.9121114065418953</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -4599,39 +8394,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9040595555171248</v>
+        <v>0.9075853698890498</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -4640,21 +8435,21 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -4663,16 +8458,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9450908651694643</v>
+        <v>0.9471644449551972</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>17</v>
@@ -4681,39 +8476,39 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9028233112085589</v>
+        <v>0.9135701064298937</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H8">
         <v>17</v>
@@ -4722,39 +8517,39 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9380941280697199</v>
+        <v>0.9176047125167089</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>17</v>
@@ -4763,39 +8558,39 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9219179205884891</v>
+        <v>0.9034579888631807</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>17</v>
@@ -4804,36 +8599,36 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9151446056691943</v>
+        <v>0.905887976396915</v>
       </c>
       <c r="G11">
         <v>25</v>
@@ -4845,16 +8640,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/17_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/17_11R22.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -689,22 +689,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1865404572397509</v>
+        <v>0.2574240311808033</v>
       </c>
       <c r="E2">
-        <v>0.1151321040006757</v>
+        <v>0.1402614823455096</v>
       </c>
       <c r="F2">
-        <v>0.2728031534443248</v>
+        <v>0.3989586962205507</v>
       </c>
       <c r="G2">
-        <v>0.001642344870700295</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.04014870637222122</v>
+        <v>0.01723321481121937</v>
       </c>
       <c r="I2">
-        <v>0.009143665214079036</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -713,58 +713,58 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01118899527560271</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.08903912854711286</v>
+        <v>0.09744969111709491</v>
       </c>
       <c r="O2">
-        <v>0.02795070679973339</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0009460864817340976</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.02309364656055339</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.007574322848717788</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06012316092620365</v>
+        <v>0.05000610342978386</v>
       </c>
       <c r="T2">
-        <v>0.05196033055630032</v>
+        <v>0.03661302028941143</v>
       </c>
       <c r="U2">
-        <v>0.00119264910849722</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.01627793411949575</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.005380783782138447</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.005959795404832889</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.002288321470759553</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03089711669049524</v>
+        <v>0.002053760605626817</v>
       </c>
       <c r="AC2">
-        <v>0.02534915453377509</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.004415642053593689</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.01095179369870192</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -802,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2098889553416745</v>
+        <v>0.2775868269235207</v>
       </c>
       <c r="F3">
-        <v>0.1111394905399323</v>
+        <v>0.1254619971018861</v>
       </c>
       <c r="G3">
-        <v>0.3059457070539059</v>
+        <v>0.4255634973467957</v>
       </c>
       <c r="H3">
-        <v>0.0003591372328056819</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.06365036264374904</v>
+        <v>0.05230438035845576</v>
       </c>
       <c r="J3">
-        <v>0.004609923583495775</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -826,61 +826,61 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.003884452290580065</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.04764756454331335</v>
+        <v>0.0276518625692575</v>
       </c>
       <c r="P3">
-        <v>0.0184893889594238</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01028509722587158</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.06791802599597861</v>
+        <v>0.05887877103993815</v>
       </c>
       <c r="U3">
-        <v>0.05082884391856019</v>
+        <v>0.03255266466014604</v>
       </c>
       <c r="V3">
-        <v>0.002424806230310346</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01563628716720985</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>4.1528893659218E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.006718554335060645</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.01220901841489648</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.001668920287990102</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.02748221491259724</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.007956604858421307</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.001126062288627008</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.007090806386839021</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.02065183886695985</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002383784032431233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1066358996520016</v>
+        <v>0.1266004579257536</v>
       </c>
       <c r="E4">
-        <v>0.02738275157560749</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.278516684647441</v>
+        <v>0.4064548303183793</v>
       </c>
       <c r="G4">
-        <v>0.1729375039662396</v>
+        <v>0.2345519887759158</v>
       </c>
       <c r="H4">
-        <v>0.03274175332721067</v>
+        <v>0.00628683506347773</v>
       </c>
       <c r="I4">
-        <v>0.0375741268485489</v>
+        <v>0.01415485160189844</v>
       </c>
       <c r="J4">
-        <v>0.01182721525215326</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -939,52 +939,52 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.01220056518025639</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.06567073384493911</v>
+        <v>0.05990143297541074</v>
       </c>
       <c r="P4">
-        <v>0.006634630247910441</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.00320474312591606</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.005350841122438076</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1035891681761711</v>
+        <v>0.12163980380121</v>
       </c>
       <c r="U4">
-        <v>0.01125157291971352</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.01761038213720086</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01300366808431208</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0007335565307959336</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.006873032101869717</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0134620953547072</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.04755758069785852</v>
+        <v>0.03040979953795437</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.007838278060310728</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01740321714639771</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1909852245331925</v>
+        <v>0.2675280006482514</v>
       </c>
       <c r="E5">
-        <v>0.1093679391258301</v>
+        <v>0.1320084954813167</v>
       </c>
       <c r="F5">
-        <v>0.2871631977964473</v>
+        <v>0.4272244580780795</v>
       </c>
       <c r="G5">
-        <v>0.004202888540632051</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.05234916736863213</v>
+        <v>0.03733301472751992</v>
       </c>
       <c r="I5">
-        <v>0.00788483225250132</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1043,58 +1043,58 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.005169593786237499</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.06587496293739865</v>
+        <v>0.05979160439170167</v>
       </c>
       <c r="O5">
-        <v>0.03042409904010561</v>
+        <v>0.0009280498257453274</v>
       </c>
       <c r="P5">
-        <v>0.003333168628747947</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.02230333066432991</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.009344901728956693</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.05328475039549435</v>
+        <v>0.03888648159682497</v>
       </c>
       <c r="T5">
-        <v>0.05172696610611244</v>
+        <v>0.0362998952505604</v>
       </c>
       <c r="U5">
-        <v>0.002334005610383764</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.02113618241824406</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.006080465225196773</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.01039349432082006</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003457322406763778</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.02881402142754019</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01999724515611587</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.00384591587985111</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.01052632465046595</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2385473593708902</v>
+        <v>0.3441328234088968</v>
       </c>
       <c r="E6">
-        <v>0.06325558731980849</v>
+        <v>0.05534507626942831</v>
       </c>
       <c r="F6">
-        <v>0.2109112492605405</v>
+        <v>0.298603190813589</v>
       </c>
       <c r="G6">
-        <v>0.004492199348296221</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03683162997728782</v>
+        <v>0.011812427690622</v>
       </c>
       <c r="I6">
-        <v>0.01300730175763617</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1153,76 +1153,76 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01033800786791765</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.06731071038867768</v>
+        <v>0.06202576550959846</v>
       </c>
       <c r="O6">
-        <v>0.03413650292629012</v>
+        <v>0.00737228962706558</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.006077086473336498</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.006066809484971821</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0864687622532672</v>
+        <v>0.09358806060661903</v>
       </c>
       <c r="T6">
-        <v>0.1034853082698827</v>
+        <v>0.1216222913678977</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.007097358417689966</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.00190733158636136</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01412635081427035</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.006798204201273017</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001240314939423327</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.02125536633656233</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01263243315944486</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0003214382948441313</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0002713209129864964</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01268946768776287</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.03299886998333185</v>
+        <v>0.005498074706282975</v>
       </c>
       <c r="AI6">
-        <v>0.007733028967246388</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1239,25 +1239,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08351070364384887</v>
+        <v>0.08279867607056152</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2991124039742494</v>
+        <v>0.3039624086160651</v>
       </c>
       <c r="G7">
-        <v>0.2684428159537314</v>
+        <v>0.2725016151628782</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02807050868073027</v>
+        <v>0.02592825050200748</v>
       </c>
       <c r="J7">
-        <v>0.04534074555340723</v>
+        <v>0.04364402010332751</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.07266500608938976</v>
+        <v>0.07167318425148983</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1281,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.02387005336192673</v>
+        <v>0.02161943301460562</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.1240786279121807</v>
+        <v>0.1244131602748054</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.05490913483053564</v>
+        <v>0.05345925200425933</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1352,28 +1352,28 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09876069355726863</v>
+        <v>0.1098790375254628</v>
       </c>
       <c r="F8">
-        <v>0.1469333483516425</v>
+        <v>0.1855048293964331</v>
       </c>
       <c r="G8">
-        <v>0.2744312832687524</v>
+        <v>0.385662622882749</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.07055026791643991</v>
+        <v>0.06559175904327373</v>
       </c>
       <c r="J8">
-        <v>0.04527379253766124</v>
+        <v>0.02591046112878814</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.00527857486766552</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1382,52 +1382,52 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.07549951915294183</v>
+        <v>0.0733615414130955</v>
       </c>
       <c r="P8">
-        <v>0.01102282104937238</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.003389734387116203</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.04098636240367449</v>
+        <v>0.01917966540332448</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.0804790020085058</v>
+        <v>0.08117878411369764</v>
       </c>
       <c r="U8">
-        <v>0.04481967513325397</v>
+        <v>0.02519754654151278</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.003978320120591623</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.002373806359018049</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.009542929675019182</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.009859323762760452</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.03759951194836501</v>
+        <v>0.01386268113653149</v>
       </c>
       <c r="AD8">
-        <v>0.03811444613770282</v>
+        <v>0.01467107141513114</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.001106587362248051</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1459,25 +1459,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2367090083591989</v>
+        <v>0.2777820340042446</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3073976468976541</v>
+        <v>0.3695738855800522</v>
       </c>
       <c r="G9">
-        <v>0.08617553290439232</v>
+        <v>0.08230866343393518</v>
       </c>
       <c r="H9">
-        <v>0.09855219579355867</v>
+        <v>0.09838022495238387</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03409065982422016</v>
+        <v>0.01467449989690426</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1489,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.01453523346153008</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01589109351193526</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.02552473115817412</v>
+        <v>0.003551319864303819</v>
       </c>
       <c r="T9">
-        <v>0.1192180261590565</v>
+        <v>0.1252155817059113</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.01715761452329004</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.04474825740698996</v>
+        <v>0.02851379056226486</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2471495076159555</v>
+        <v>0.3148082997194047</v>
       </c>
       <c r="F10">
-        <v>0.03822555444395355</v>
+        <v>0.01729869521408728</v>
       </c>
       <c r="G10">
-        <v>0.2457124257566633</v>
+        <v>0.3127618821157334</v>
       </c>
       <c r="H10">
-        <v>0.003614444514443908</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.06803985219323064</v>
+        <v>0.05975452566014779</v>
       </c>
       <c r="J10">
-        <v>0.03986962692744671</v>
+        <v>0.01963986934427158</v>
       </c>
       <c r="K10">
-        <v>4.171557279648163E-05</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1602,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.05761437421903721</v>
+        <v>0.04490855045342917</v>
       </c>
       <c r="P10">
-        <v>0.01069652926005098</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.09538193207038419</v>
+        <v>0.09868989543035213</v>
       </c>
       <c r="U10">
-        <v>0.1155719580145266</v>
+        <v>0.1274406755223252</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1641,13 +1641,13 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02657378863816633</v>
+        <v>0.0007064750112920447</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.02888041475742638</v>
+        <v>0.003991131528956755</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1662,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.02041220218868657</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.002215673827231663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1682,85 +1682,85 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2406552107380849</v>
+        <v>0.3349717870801945</v>
       </c>
       <c r="F11">
-        <v>0.017940970275933</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2424616755653395</v>
+        <v>0.3378370850221052</v>
       </c>
       <c r="H11">
-        <v>0.01378472442642372</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1054814934761846</v>
+        <v>0.1205679592129321</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.009774445455876024</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.003443295704754692</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.05479137076686277</v>
+        <v>0.04016655749012015</v>
       </c>
       <c r="P11">
-        <v>0.01315233343273037</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.0004925639730802227</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.02763293346005353</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01502570527238452</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.05169500805361934</v>
+        <v>0.0352553067556405</v>
       </c>
       <c r="U11">
-        <v>0.08029029907650065</v>
+        <v>0.08061131218682477</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.0014464308282971</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.003731309698684087</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.01351716269133196</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.01982767277305325</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.01230468122543468</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.06136296250307561</v>
+        <v>0.05058999225218267</v>
       </c>
       <c r="AE11">
-        <v>0.005350010190052886</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1769,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.0006156510497730932</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.005222089362469581</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1865404572397509</v>
+        <v>0.2574240311808033</v>
       </c>
       <c r="E2">
-        <v>0.3016725612404267</v>
+        <v>0.3976855135263129</v>
       </c>
       <c r="F2">
-        <v>0.5744757146847514</v>
+        <v>0.7966442097468636</v>
       </c>
       <c r="G2">
-        <v>0.5761180595554517</v>
+        <v>0.7966442097468636</v>
       </c>
       <c r="H2">
-        <v>0.6162667659276729</v>
+        <v>0.813877424558083</v>
       </c>
       <c r="I2">
-        <v>0.625410431141752</v>
+        <v>0.813877424558083</v>
       </c>
       <c r="J2">
-        <v>0.625410431141752</v>
+        <v>0.813877424558083</v>
       </c>
       <c r="K2">
-        <v>0.625410431141752</v>
+        <v>0.813877424558083</v>
       </c>
       <c r="L2">
-        <v>0.6365994264173547</v>
+        <v>0.813877424558083</v>
       </c>
       <c r="M2">
-        <v>0.6365994264173547</v>
+        <v>0.813877424558083</v>
       </c>
       <c r="N2">
-        <v>0.7256385549644675</v>
+        <v>0.9113271156751779</v>
       </c>
       <c r="O2">
-        <v>0.7535892617642009</v>
+        <v>0.9113271156751779</v>
       </c>
       <c r="P2">
-        <v>0.754535348245935</v>
+        <v>0.9113271156751779</v>
       </c>
       <c r="Q2">
-        <v>0.7776289948064884</v>
+        <v>0.9113271156751779</v>
       </c>
       <c r="R2">
-        <v>0.7852033176552062</v>
+        <v>0.9113271156751779</v>
       </c>
       <c r="S2">
-        <v>0.8453264785814099</v>
+        <v>0.9613332191049617</v>
       </c>
       <c r="T2">
-        <v>0.8972868091377102</v>
+        <v>0.9979462393943731</v>
       </c>
       <c r="U2">
-        <v>0.8984794582462075</v>
+        <v>0.9979462393943731</v>
       </c>
       <c r="V2">
-        <v>0.9147573923657032</v>
+        <v>0.9979462393943731</v>
       </c>
       <c r="W2">
-        <v>0.9147573923657032</v>
+        <v>0.9979462393943731</v>
       </c>
       <c r="X2">
-        <v>0.9201381761478417</v>
+        <v>0.9979462393943731</v>
       </c>
       <c r="Y2">
-        <v>0.9201381761478417</v>
+        <v>0.9979462393943731</v>
       </c>
       <c r="Z2">
-        <v>0.9260979715526746</v>
+        <v>0.9979462393943731</v>
       </c>
       <c r="AA2">
-        <v>0.9283862930234341</v>
+        <v>0.9979462393943731</v>
       </c>
       <c r="AB2">
-        <v>0.9592834097139293</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.9846325642477044</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD2">
-        <v>0.9846325642477044</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE2">
-        <v>0.9846325642477044</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>0.9846325642477044</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>0.9890482063012981</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2025,100 +2025,100 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2098889553416745</v>
+        <v>0.2775868269235207</v>
       </c>
       <c r="F3">
-        <v>0.3210284458816068</v>
+        <v>0.4030488240254068</v>
       </c>
       <c r="G3">
-        <v>0.6269741529355128</v>
+        <v>0.8286123213722025</v>
       </c>
       <c r="H3">
-        <v>0.6273332901683185</v>
+        <v>0.8286123213722025</v>
       </c>
       <c r="I3">
-        <v>0.6909836528120675</v>
+        <v>0.8809167017306583</v>
       </c>
       <c r="J3">
-        <v>0.6955935763955633</v>
+        <v>0.8809167017306583</v>
       </c>
       <c r="K3">
-        <v>0.6955935763955633</v>
+        <v>0.8809167017306583</v>
       </c>
       <c r="L3">
-        <v>0.6955935763955633</v>
+        <v>0.8809167017306583</v>
       </c>
       <c r="M3">
-        <v>0.6994780286861434</v>
+        <v>0.8809167017306583</v>
       </c>
       <c r="N3">
-        <v>0.6994780286861434</v>
+        <v>0.8809167017306583</v>
       </c>
       <c r="O3">
-        <v>0.7471255932294567</v>
+        <v>0.9085685642999157</v>
       </c>
       <c r="P3">
-        <v>0.7656149821888805</v>
+        <v>0.9085685642999157</v>
       </c>
       <c r="Q3">
-        <v>0.7656149821888805</v>
+        <v>0.9085685642999157</v>
       </c>
       <c r="R3">
-        <v>0.775900079414752</v>
+        <v>0.9085685642999157</v>
       </c>
       <c r="S3">
-        <v>0.775900079414752</v>
+        <v>0.9085685642999157</v>
       </c>
       <c r="T3">
-        <v>0.8438181054107307</v>
+        <v>0.9674473353398538</v>
       </c>
       <c r="U3">
-        <v>0.8946469493292909</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V3">
-        <v>0.8970717555596013</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W3">
-        <v>0.9127080427268112</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X3">
-        <v>0.9127121956161771</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y3">
-        <v>0.9194307499512377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.9194307499512377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.9316397683661343</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.9333086886541244</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.9607909035667217</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD3">
-        <v>0.968747508425143</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE3">
-        <v>0.96987357071377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.96987357071377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.96987357071377</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.976964377100609</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.9976162159675689</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,97 +2132,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1066358996520016</v>
+        <v>0.1266004579257536</v>
       </c>
       <c r="E4">
-        <v>0.1340186512276091</v>
+        <v>0.1266004579257536</v>
       </c>
       <c r="F4">
-        <v>0.4125353358750501</v>
+        <v>0.5330552882441328</v>
       </c>
       <c r="G4">
-        <v>0.5854728398412897</v>
+        <v>0.7676072770200487</v>
       </c>
       <c r="H4">
-        <v>0.6182145931685004</v>
+        <v>0.7738941120835264</v>
       </c>
       <c r="I4">
-        <v>0.6557887200170492</v>
+        <v>0.7880489636854249</v>
       </c>
       <c r="J4">
-        <v>0.6676159352692025</v>
+        <v>0.7880489636854249</v>
       </c>
       <c r="K4">
-        <v>0.6676159352692025</v>
+        <v>0.7880489636854249</v>
       </c>
       <c r="L4">
-        <v>0.6676159352692025</v>
+        <v>0.7880489636854249</v>
       </c>
       <c r="M4">
-        <v>0.6676159352692025</v>
+        <v>0.7880489636854249</v>
       </c>
       <c r="N4">
-        <v>0.6798165004494588</v>
+        <v>0.7880489636854249</v>
       </c>
       <c r="O4">
-        <v>0.745487234294398</v>
+        <v>0.8479503966608356</v>
       </c>
       <c r="P4">
-        <v>0.7521218645423084</v>
+        <v>0.8479503966608356</v>
       </c>
       <c r="Q4">
-        <v>0.7521218645423084</v>
+        <v>0.8479503966608356</v>
       </c>
       <c r="R4">
-        <v>0.7553266076682245</v>
+        <v>0.8479503966608356</v>
       </c>
       <c r="S4">
-        <v>0.7606774487906626</v>
+        <v>0.8479503966608356</v>
       </c>
       <c r="T4">
-        <v>0.8642666169668336</v>
+        <v>0.9695902004620456</v>
       </c>
       <c r="U4">
-        <v>0.8755181898865472</v>
+        <v>0.9695902004620456</v>
       </c>
       <c r="V4">
-        <v>0.8931285720237481</v>
+        <v>0.9695902004620456</v>
       </c>
       <c r="W4">
-        <v>0.8931285720237481</v>
+        <v>0.9695902004620456</v>
       </c>
       <c r="X4">
-        <v>0.9061322401080601</v>
+        <v>0.9695902004620456</v>
       </c>
       <c r="Y4">
-        <v>0.9061322401080601</v>
+        <v>0.9695902004620456</v>
       </c>
       <c r="Z4">
-        <v>0.9068657966388561</v>
+        <v>0.9695902004620456</v>
       </c>
       <c r="AA4">
-        <v>0.9137388287407259</v>
+        <v>0.9695902004620456</v>
       </c>
       <c r="AB4">
-        <v>0.9272009240954331</v>
+        <v>0.9695902004620456</v>
       </c>
       <c r="AC4">
-        <v>0.9747585047932916</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9747585047932916</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9747585047932916</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9747585047932916</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9747585047932916</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9825967828536023</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -2242,103 +2242,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1909852245331925</v>
+        <v>0.2675280006482514</v>
       </c>
       <c r="E5">
-        <v>0.3003531636590226</v>
+        <v>0.3995364961295681</v>
       </c>
       <c r="F5">
-        <v>0.5875163614554699</v>
+        <v>0.8267609542076476</v>
       </c>
       <c r="G5">
-        <v>0.5917192499961019</v>
+        <v>0.8267609542076476</v>
       </c>
       <c r="H5">
-        <v>0.6440684173647341</v>
+        <v>0.8640939689351675</v>
       </c>
       <c r="I5">
-        <v>0.6519532496172354</v>
+        <v>0.8640939689351675</v>
       </c>
       <c r="J5">
-        <v>0.6519532496172354</v>
+        <v>0.8640939689351675</v>
       </c>
       <c r="K5">
-        <v>0.6519532496172354</v>
+        <v>0.8640939689351675</v>
       </c>
       <c r="L5">
-        <v>0.6571228434034729</v>
+        <v>0.8640939689351675</v>
       </c>
       <c r="M5">
-        <v>0.6571228434034729</v>
+        <v>0.8640939689351675</v>
       </c>
       <c r="N5">
-        <v>0.7229978063408716</v>
+        <v>0.9238855733268692</v>
       </c>
       <c r="O5">
-        <v>0.7534219053809772</v>
+        <v>0.9248136231526145</v>
       </c>
       <c r="P5">
-        <v>0.7567550740097252</v>
+        <v>0.9248136231526145</v>
       </c>
       <c r="Q5">
-        <v>0.7790584046740551</v>
+        <v>0.9248136231526145</v>
       </c>
       <c r="R5">
-        <v>0.7884033064030118</v>
+        <v>0.9248136231526145</v>
       </c>
       <c r="S5">
-        <v>0.8416880567985061</v>
+        <v>0.9637001047494395</v>
       </c>
       <c r="T5">
-        <v>0.8934150229046185</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U5">
-        <v>0.8957490285150023</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V5">
-        <v>0.9168852109332464</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W5">
-        <v>0.9168852109332464</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X5">
-        <v>0.9229656761584432</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y5">
-        <v>0.9229656761584432</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z5">
-        <v>0.9333591704792632</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.936816492886027</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.9656305143135672</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.9856277594696831</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD5">
-        <v>0.9856277594696831</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE5">
-        <v>0.9856277594696831</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF5">
-        <v>0.9856277594696831</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
-        <v>0.9894736753495341</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2352,103 +2352,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2385473593708902</v>
+        <v>0.3441328234088968</v>
       </c>
       <c r="E6">
-        <v>0.3018029466906987</v>
+        <v>0.3994778996783251</v>
       </c>
       <c r="F6">
-        <v>0.5127141959512392</v>
+        <v>0.6980810904919141</v>
       </c>
       <c r="G6">
-        <v>0.5172063952995355</v>
+        <v>0.6980810904919141</v>
       </c>
       <c r="H6">
-        <v>0.5540380252768233</v>
+        <v>0.7098935181825361</v>
       </c>
       <c r="I6">
-        <v>0.5670453270344595</v>
+        <v>0.7098935181825361</v>
       </c>
       <c r="J6">
-        <v>0.5670453270344595</v>
+        <v>0.7098935181825361</v>
       </c>
       <c r="K6">
-        <v>0.5670453270344595</v>
+        <v>0.7098935181825361</v>
       </c>
       <c r="L6">
-        <v>0.5773833349023771</v>
+        <v>0.7098935181825361</v>
       </c>
       <c r="M6">
-        <v>0.5773833349023771</v>
+        <v>0.7098935181825361</v>
       </c>
       <c r="N6">
-        <v>0.6446940452910548</v>
+        <v>0.7719192836921346</v>
       </c>
       <c r="O6">
-        <v>0.6788305482173449</v>
+        <v>0.7792915733192002</v>
       </c>
       <c r="P6">
-        <v>0.6788305482173449</v>
+        <v>0.7792915733192002</v>
       </c>
       <c r="Q6">
-        <v>0.6849076346906814</v>
+        <v>0.7792915733192002</v>
       </c>
       <c r="R6">
-        <v>0.6909744441756532</v>
+        <v>0.7792915733192002</v>
       </c>
       <c r="S6">
-        <v>0.7774432064289204</v>
+        <v>0.8728796339258192</v>
       </c>
       <c r="T6">
-        <v>0.8809285146988031</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="U6">
-        <v>0.8809285146988031</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="V6">
-        <v>0.8880258731164931</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="W6">
-        <v>0.8899332047028544</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="X6">
-        <v>0.9040595555171248</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="Y6">
-        <v>0.9040595555171248</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="Z6">
-        <v>0.9108577597183978</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="AA6">
-        <v>0.9120980746578211</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="AB6">
-        <v>0.9333534409943834</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="AC6">
-        <v>0.9459858741538283</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="AD6">
-        <v>0.9463073124486724</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="AE6">
-        <v>0.9465786333616589</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="AF6">
-        <v>0.9465786333616589</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="AG6">
-        <v>0.9592681010494218</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="AH6">
-        <v>0.9922669710327537</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08351070364384887</v>
+        <v>0.08279867607056152</v>
       </c>
       <c r="E7">
-        <v>0.08351070364384887</v>
+        <v>0.08279867607056152</v>
       </c>
       <c r="F7">
-        <v>0.3826231076180983</v>
+        <v>0.3867610846866266</v>
       </c>
       <c r="G7">
-        <v>0.6510659235718297</v>
+        <v>0.6592626998495048</v>
       </c>
       <c r="H7">
-        <v>0.6510659235718297</v>
+        <v>0.6592626998495048</v>
       </c>
       <c r="I7">
-        <v>0.6791364322525599</v>
+        <v>0.6851909503515123</v>
       </c>
       <c r="J7">
-        <v>0.7244771778059672</v>
+        <v>0.7288349704548398</v>
       </c>
       <c r="K7">
-        <v>0.7244771778059672</v>
+        <v>0.7288349704548398</v>
       </c>
       <c r="L7">
-        <v>0.7244771778059672</v>
+        <v>0.7288349704548398</v>
       </c>
       <c r="M7">
-        <v>0.7244771778059672</v>
+        <v>0.7288349704548398</v>
       </c>
       <c r="N7">
-        <v>0.7244771778059672</v>
+        <v>0.7288349704548398</v>
       </c>
       <c r="O7">
-        <v>0.797142183895357</v>
+        <v>0.8005081547063296</v>
       </c>
       <c r="P7">
-        <v>0.797142183895357</v>
+        <v>0.8005081547063296</v>
       </c>
       <c r="Q7">
-        <v>0.797142183895357</v>
+        <v>0.8005081547063296</v>
       </c>
       <c r="R7">
-        <v>0.8210122372572837</v>
+        <v>0.8221275877209353</v>
       </c>
       <c r="S7">
-        <v>0.8210122372572837</v>
+        <v>0.8221275877209353</v>
       </c>
       <c r="T7">
-        <v>0.9450908651694643</v>
+        <v>0.9465407479957407</v>
       </c>
       <c r="U7">
-        <v>0.9450908651694643</v>
+        <v>0.9465407479957407</v>
       </c>
       <c r="V7">
-        <v>0.9450908651694643</v>
+        <v>0.9465407479957407</v>
       </c>
       <c r="W7">
-        <v>0.9450908651694643</v>
+        <v>0.9465407479957407</v>
       </c>
       <c r="X7">
-        <v>0.9450908651694643</v>
+        <v>0.9465407479957407</v>
       </c>
       <c r="Y7">
-        <v>0.9450908651694643</v>
+        <v>0.9465407479957407</v>
       </c>
       <c r="Z7">
-        <v>0.9450908651694643</v>
+        <v>0.9465407479957407</v>
       </c>
       <c r="AA7">
-        <v>0.9450908651694643</v>
+        <v>0.9465407479957407</v>
       </c>
       <c r="AB7">
-        <v>0.9450908651694643</v>
+        <v>0.9465407479957407</v>
       </c>
       <c r="AC7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2575,100 +2575,100 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09876069355726863</v>
+        <v>0.1098790375254628</v>
       </c>
       <c r="F8">
-        <v>0.2456940419089111</v>
+        <v>0.2953838669218959</v>
       </c>
       <c r="G8">
-        <v>0.5201253251776635</v>
+        <v>0.6810464898046449</v>
       </c>
       <c r="H8">
-        <v>0.5201253251776635</v>
+        <v>0.6810464898046449</v>
       </c>
       <c r="I8">
-        <v>0.5906755930941034</v>
+        <v>0.7466382488479186</v>
       </c>
       <c r="J8">
-        <v>0.6359493856317647</v>
+        <v>0.7725487099767068</v>
       </c>
       <c r="K8">
-        <v>0.6359493856317647</v>
+        <v>0.7725487099767068</v>
       </c>
       <c r="L8">
-        <v>0.6412279604994302</v>
+        <v>0.7725487099767068</v>
       </c>
       <c r="M8">
-        <v>0.6412279604994302</v>
+        <v>0.7725487099767068</v>
       </c>
       <c r="N8">
-        <v>0.6412279604994302</v>
+        <v>0.7725487099767068</v>
       </c>
       <c r="O8">
-        <v>0.716727479652372</v>
+        <v>0.8459102513898022</v>
       </c>
       <c r="P8">
-        <v>0.7277503007017444</v>
+        <v>0.8459102513898022</v>
       </c>
       <c r="Q8">
-        <v>0.7311400350888606</v>
+        <v>0.8459102513898022</v>
       </c>
       <c r="R8">
-        <v>0.7721263974925351</v>
+        <v>0.8650899167931267</v>
       </c>
       <c r="S8">
-        <v>0.7721263974925351</v>
+        <v>0.8650899167931267</v>
       </c>
       <c r="T8">
-        <v>0.8526053995010409</v>
+        <v>0.9462687009068244</v>
       </c>
       <c r="U8">
-        <v>0.8974250746342949</v>
+        <v>0.9714662474483371</v>
       </c>
       <c r="V8">
-        <v>0.8974250746342949</v>
+        <v>0.9714662474483371</v>
       </c>
       <c r="W8">
-        <v>0.9014033947548865</v>
+        <v>0.9714662474483371</v>
       </c>
       <c r="X8">
-        <v>0.9014033947548865</v>
+        <v>0.9714662474483371</v>
       </c>
       <c r="Y8">
-        <v>0.9037772011139046</v>
+        <v>0.9714662474483371</v>
       </c>
       <c r="Z8">
-        <v>0.9037772011139046</v>
+        <v>0.9714662474483371</v>
       </c>
       <c r="AA8">
-        <v>0.9133201307889237</v>
+        <v>0.9714662474483371</v>
       </c>
       <c r="AB8">
-        <v>0.9231794545516842</v>
+        <v>0.9714662474483371</v>
       </c>
       <c r="AC8">
-        <v>0.9607789665000491</v>
+        <v>0.9853289285848685</v>
       </c>
       <c r="AD8">
-        <v>0.998893412637752</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AE8">
-        <v>0.998893412637752</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AF8">
-        <v>0.998893412637752</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG8">
-        <v>0.998893412637752</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH8">
-        <v>0.998893412637752</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2367090083591989</v>
+        <v>0.2777820340042446</v>
       </c>
       <c r="E9">
-        <v>0.2367090083591989</v>
+        <v>0.2777820340042446</v>
       </c>
       <c r="F9">
-        <v>0.544106655256853</v>
+        <v>0.6473559195842968</v>
       </c>
       <c r="G9">
-        <v>0.6302821881612453</v>
+        <v>0.729664583018232</v>
       </c>
       <c r="H9">
-        <v>0.7288343839548039</v>
+        <v>0.8280448079706159</v>
       </c>
       <c r="I9">
-        <v>0.7288343839548039</v>
+        <v>0.8280448079706159</v>
       </c>
       <c r="J9">
-        <v>0.762925043779024</v>
+        <v>0.8427193078675201</v>
       </c>
       <c r="K9">
-        <v>0.762925043779024</v>
+        <v>0.8427193078675201</v>
       </c>
       <c r="L9">
-        <v>0.762925043779024</v>
+        <v>0.8427193078675201</v>
       </c>
       <c r="M9">
-        <v>0.762925043779024</v>
+        <v>0.8427193078675201</v>
       </c>
       <c r="N9">
-        <v>0.7774602772405541</v>
+        <v>0.8427193078675201</v>
       </c>
       <c r="O9">
-        <v>0.7933513707524894</v>
+        <v>0.8427193078675201</v>
       </c>
       <c r="P9">
-        <v>0.7933513707524894</v>
+        <v>0.8427193078675201</v>
       </c>
       <c r="Q9">
-        <v>0.7933513707524894</v>
+        <v>0.8427193078675201</v>
       </c>
       <c r="R9">
-        <v>0.7933513707524894</v>
+        <v>0.8427193078675201</v>
       </c>
       <c r="S9">
-        <v>0.8188761019106635</v>
+        <v>0.8462706277318239</v>
       </c>
       <c r="T9">
-        <v>0.9380941280697199</v>
+        <v>0.9714862094377352</v>
       </c>
       <c r="U9">
-        <v>0.9380941280697199</v>
+        <v>0.9714862094377352</v>
       </c>
       <c r="V9">
-        <v>0.9380941280697199</v>
+        <v>0.9714862094377352</v>
       </c>
       <c r="W9">
-        <v>0.9380941280697199</v>
+        <v>0.9714862094377352</v>
       </c>
       <c r="X9">
-        <v>0.9380941280697199</v>
+        <v>0.9714862094377352</v>
       </c>
       <c r="Y9">
-        <v>0.9380941280697199</v>
+        <v>0.9714862094377352</v>
       </c>
       <c r="Z9">
-        <v>0.9380941280697199</v>
+        <v>0.9714862094377352</v>
       </c>
       <c r="AA9">
-        <v>0.9552517425930099</v>
+        <v>0.9714862094377352</v>
       </c>
       <c r="AB9">
-        <v>0.9552517425930099</v>
+        <v>0.9714862094377352</v>
       </c>
       <c r="AC9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2795,97 +2795,97 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2471495076159555</v>
+        <v>0.3148082997194047</v>
       </c>
       <c r="F10">
-        <v>0.285375062059909</v>
+        <v>0.332106994933492</v>
       </c>
       <c r="G10">
-        <v>0.5310874878165723</v>
+        <v>0.6448688770492254</v>
       </c>
       <c r="H10">
-        <v>0.5347019323310163</v>
+        <v>0.6448688770492254</v>
       </c>
       <c r="I10">
-        <v>0.6027417845242469</v>
+        <v>0.7046234027093732</v>
       </c>
       <c r="J10">
-        <v>0.6426114114516935</v>
+        <v>0.7242632720536447</v>
       </c>
       <c r="K10">
-        <v>0.6426531270244901</v>
+        <v>0.7242632720536447</v>
       </c>
       <c r="L10">
-        <v>0.6426531270244901</v>
+        <v>0.7242632720536447</v>
       </c>
       <c r="M10">
-        <v>0.6426531270244901</v>
+        <v>0.7242632720536447</v>
       </c>
       <c r="N10">
-        <v>0.6426531270244901</v>
+        <v>0.7242632720536447</v>
       </c>
       <c r="O10">
-        <v>0.7002675012435273</v>
+        <v>0.7691718225070738</v>
       </c>
       <c r="P10">
-        <v>0.7109640305035783</v>
+        <v>0.7691718225070738</v>
       </c>
       <c r="Q10">
-        <v>0.7109640305035783</v>
+        <v>0.7691718225070738</v>
       </c>
       <c r="R10">
-        <v>0.7109640305035783</v>
+        <v>0.7691718225070738</v>
       </c>
       <c r="S10">
-        <v>0.7109640305035783</v>
+        <v>0.7691718225070738</v>
       </c>
       <c r="T10">
-        <v>0.8063459625739624</v>
+        <v>0.8678617179374259</v>
       </c>
       <c r="U10">
-        <v>0.9219179205884891</v>
+        <v>0.9953023934597511</v>
       </c>
       <c r="V10">
-        <v>0.9219179205884891</v>
+        <v>0.9953023934597511</v>
       </c>
       <c r="W10">
-        <v>0.9219179205884891</v>
+        <v>0.9953023934597511</v>
       </c>
       <c r="X10">
-        <v>0.9219179205884891</v>
+        <v>0.9953023934597511</v>
       </c>
       <c r="Y10">
-        <v>0.9219179205884891</v>
+        <v>0.9953023934597511</v>
       </c>
       <c r="Z10">
-        <v>0.9219179205884891</v>
+        <v>0.9953023934597511</v>
       </c>
       <c r="AA10">
-        <v>0.9219179205884891</v>
+        <v>0.9953023934597511</v>
       </c>
       <c r="AB10">
-        <v>0.9484917092266554</v>
+        <v>0.9960088684710432</v>
       </c>
       <c r="AC10">
-        <v>0.9484917092266554</v>
+        <v>0.9960088684710432</v>
       </c>
       <c r="AD10">
-        <v>0.9773721239840818</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9773721239840818</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9773721239840818</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9773721239840818</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9773721239840818</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9977843261727684</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <v>1</v>
@@ -2905,94 +2905,94 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2406552107380849</v>
+        <v>0.3349717870801945</v>
       </c>
       <c r="F11">
-        <v>0.2585961810140179</v>
+        <v>0.3349717870801945</v>
       </c>
       <c r="G11">
-        <v>0.5010578565793574</v>
+        <v>0.6728088721022998</v>
       </c>
       <c r="H11">
-        <v>0.5148425810057812</v>
+        <v>0.6728088721022998</v>
       </c>
       <c r="I11">
-        <v>0.6203240744819658</v>
+        <v>0.793376831315232</v>
       </c>
       <c r="J11">
-        <v>0.6203240744819658</v>
+        <v>0.793376831315232</v>
       </c>
       <c r="K11">
-        <v>0.6300985199378418</v>
+        <v>0.793376831315232</v>
       </c>
       <c r="L11">
-        <v>0.6300985199378418</v>
+        <v>0.793376831315232</v>
       </c>
       <c r="M11">
-        <v>0.6335418156425965</v>
+        <v>0.793376831315232</v>
       </c>
       <c r="N11">
-        <v>0.6335418156425965</v>
+        <v>0.793376831315232</v>
       </c>
       <c r="O11">
-        <v>0.6883331864094593</v>
+        <v>0.8335433888053521</v>
       </c>
       <c r="P11">
-        <v>0.7014855198421897</v>
+        <v>0.8335433888053521</v>
       </c>
       <c r="Q11">
-        <v>0.7019780838152698</v>
+        <v>0.8335433888053521</v>
       </c>
       <c r="R11">
-        <v>0.7296110172753234</v>
+        <v>0.8335433888053521</v>
       </c>
       <c r="S11">
-        <v>0.744636722547708</v>
+        <v>0.8335433888053521</v>
       </c>
       <c r="T11">
-        <v>0.7963317306013273</v>
+        <v>0.8687986955609925</v>
       </c>
       <c r="U11">
-        <v>0.876622029677828</v>
+        <v>0.9494100077478174</v>
       </c>
       <c r="V11">
-        <v>0.876622029677828</v>
+        <v>0.9494100077478174</v>
       </c>
       <c r="W11">
-        <v>0.8780684605061251</v>
+        <v>0.9494100077478174</v>
       </c>
       <c r="X11">
-        <v>0.8780684605061251</v>
+        <v>0.9494100077478174</v>
       </c>
       <c r="Y11">
-        <v>0.8817997702048092</v>
+        <v>0.9494100077478174</v>
       </c>
       <c r="Z11">
-        <v>0.8953169328961411</v>
+        <v>0.9494100077478174</v>
       </c>
       <c r="AA11">
-        <v>0.8953169328961411</v>
+        <v>0.9494100077478174</v>
       </c>
       <c r="AB11">
-        <v>0.9151446056691943</v>
+        <v>0.9494100077478174</v>
       </c>
       <c r="AC11">
-        <v>0.927449286894629</v>
+        <v>0.9494100077478174</v>
       </c>
       <c r="AD11">
-        <v>0.9888122493977046</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9941622595877575</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9941622595877575</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9941622595877575</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9947779106375306</v>
+        <v>1</v>
       </c>
       <c r="AI11">
         <v>1</v>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.7966442097468636</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5744757146847514</v>
-      </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>17</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.8286123213722025</v>
+      </c>
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.6269741529355128</v>
-      </c>
       <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>17</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5330552882441328</v>
       </c>
       <c r="F4">
-        <v>0.5854728398412897</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>17</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.8267609542076476</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5875163614554699</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>17</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.6980810904919141</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5127141959512392</v>
-      </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>17</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.6592626998495048</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.6510659235718297</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>17</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.6810464898046449</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5201253251776635</v>
-      </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>17</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.6473559195842968</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.544106655256853</v>
-      </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>17</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.6448688770492254</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5310874878165723</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>17</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.6728088721022998</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5010578565793574</v>
-      </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>17</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>13</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7966442097468636</v>
       </c>
       <c r="F2">
-        <v>0.7256385549644675</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>17</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8286123213722025</v>
       </c>
       <c r="F3">
-        <v>0.7471255932294567</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>17</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7676072770200487</v>
       </c>
       <c r="F4">
-        <v>0.745487234294398</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>17</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8267609542076476</v>
       </c>
       <c r="F5">
-        <v>0.7229978063408716</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>17</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>18</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7098935181825361</v>
       </c>
       <c r="F6">
-        <v>0.7774432064289204</v>
+        <v>7</v>
       </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>17</v>
-      </c>
-      <c r="H6">
-        <v>17</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.7288349704548398</v>
+      </c>
+      <c r="F7">
         <v>9</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7244771778059672</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>17</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7466382488479186</v>
       </c>
       <c r="F8">
-        <v>0.716727479652372</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>17</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.729664583018232</v>
       </c>
       <c r="F9">
-        <v>0.7288343839548039</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>17</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7046234027093732</v>
       </c>
       <c r="F10">
-        <v>0.7002675012435273</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>17</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.793376831315232</v>
       </c>
       <c r="F11">
-        <v>0.7014855198421897</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>17</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.813877424558083</v>
       </c>
       <c r="F2">
-        <v>0.8453264785814099</v>
+        <v>7</v>
       </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>17</v>
-      </c>
-      <c r="H2">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8286123213722025</v>
       </c>
       <c r="F3">
-        <v>0.8438181054107307</v>
+        <v>6</v>
       </c>
       <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>17</v>
-      </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8479503966608356</v>
       </c>
       <c r="F4">
-        <v>0.8642666169668336</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>17</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8267609542076476</v>
       </c>
       <c r="F5">
-        <v>0.8416880567985061</v>
+        <v>5</v>
       </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>17</v>
-      </c>
-      <c r="H5">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8728796339258192</v>
       </c>
       <c r="F6">
-        <v>0.8809285146988031</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H6">
         <v>17</v>
       </c>
-      <c r="I6">
-        <v>600</v>
+      <c r="I6" t="s">
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
         <v>59</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.8005081547063296</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>17</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8210122372572837</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>17</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8459102513898022</v>
       </c>
       <c r="F8">
-        <v>0.8526053995010409</v>
+        <v>14</v>
       </c>
       <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>17</v>
-      </c>
-      <c r="H8">
-        <v>17</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8280448079706159</v>
       </c>
       <c r="F9">
-        <v>0.8188761019106635</v>
+        <v>7</v>
       </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>17</v>
-      </c>
-      <c r="H9">
-        <v>17</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <v>0.8678617179374259</v>
+      </c>
+      <c r="F10">
         <v>19</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8063459625739624</v>
-      </c>
       <c r="G10">
-        <v>17</v>
+        <v>600</v>
       </c>
       <c r="H10">
         <v>17</v>
       </c>
-      <c r="I10">
-        <v>600</v>
+      <c r="I10" t="s">
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
         <v>59</v>
+      </c>
+      <c r="K10">
+        <v>17</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8335433888053521</v>
       </c>
       <c r="F11">
-        <v>0.876622029677828</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>17</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9113271156751779</v>
       </c>
       <c r="F2">
-        <v>0.9147573923657032</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>17</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9085685642999157</v>
       </c>
       <c r="F3">
-        <v>0.9127080427268112</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>17</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9695902004620456</v>
       </c>
       <c r="F4">
-        <v>0.9061322401080601</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>17</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9238855733268692</v>
       </c>
       <c r="F5">
-        <v>0.9168852109332464</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>17</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9945019252937169</v>
       </c>
       <c r="F6">
-        <v>0.9040595555171248</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>17</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9465407479957407</v>
+      </c>
+      <c r="F7">
         <v>19</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9450908651694643</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>17</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9462687009068244</v>
       </c>
       <c r="F8">
-        <v>0.9014033947548865</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="H8">
         <v>17</v>
       </c>
-      <c r="I8">
-        <v>600</v>
+      <c r="I8" t="s">
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
         <v>59</v>
+      </c>
+      <c r="K8">
+        <v>17</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.9714862094377352</v>
+      </c>
+      <c r="F9">
         <v>19</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9380941280697199</v>
-      </c>
       <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>18</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>17</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>0.9953023934597511</v>
+      </c>
+      <c r="F10">
         <v>20</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9219179205884891</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>18</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>17</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9494100077478174</v>
       </c>
       <c r="F11">
-        <v>0.9151446056691943</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>17</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
